--- a/opcodes y señales.xlsx
+++ b/opcodes y señales.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Señales" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Transformador" sheetId="4" r:id="rId4"/>
     <sheet name="Original" sheetId="5" r:id="rId5"/>
     <sheet name="Diferencias" sheetId="6" r:id="rId6"/>
+    <sheet name="Opcodes python" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="319">
   <si>
     <t>Instrucción</t>
   </si>
@@ -984,12 +985,15 @@
   <si>
     <t>INC (B)</t>
   </si>
+  <si>
+    <t>Python</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -998,6 +1002,18 @@
     <font>
       <sz val="12"/>
       <color indexed="18"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -1248,12 +1264,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1368,6 +1390,12 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1383,14 +1411,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2554,8 +2581,8 @@
   </sheetPr>
   <dimension ref="A1:IV131"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2593,23 +2620,23 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="40"/>
+      <c r="N1" s="42"/>
       <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
@@ -8202,7 +8229,7 @@
         <v>00000000110100000</v>
       </c>
       <c r="U67" s="9" t="str">
-        <f t="shared" ref="U67:U129" si="4">CONCATENATE("'",T66:T194,"'"," when ","'",B66:B194,"'",","," --",A66:A194)</f>
+        <f t="shared" ref="U67:U128" si="4">CONCATENATE("'",T66:T194,"'"," when ","'",B66:B194,"'",","," --",A66:A194)</f>
         <v>'00000000110100000' when '1000001', --ADD B,(Dir)</v>
       </c>
     </row>
@@ -13332,7 +13359,7 @@
       </c>
     </row>
     <row r="129" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="43">
+      <c r="A129" s="38">
         <f>'Nombre - Señales'!A129</f>
         <v>0</v>
       </c>
@@ -13414,10 +13441,10 @@
       <c r="U129" s="9"/>
     </row>
     <row r="130" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="44"/>
+      <c r="A130" s="39"/>
     </row>
     <row r="131" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="44"/>
+      <c r="A131" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13441,7 +13468,7 @@
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
@@ -18332,7 +18359,7 @@
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -29340,10 +29367,10 @@
       <c r="E1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="2" t="s">
         <v>292</v>
       </c>
@@ -29356,19 +29383,19 @@
       <c r="K1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="41" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
       <c r="S1" s="2" t="s">
         <v>299</v>
       </c>
@@ -39231,4 +39258,1828 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.625" style="45"/>
+    <col min="3" max="3" width="20" style="45" customWidth="1"/>
+    <col min="4" max="16384" width="10.625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="str">
+        <f>Señales!A2</f>
+        <v>NOP</v>
+      </c>
+      <c r="B2" s="45" t="str">
+        <f>Señales!B2</f>
+        <v>0000000</v>
+      </c>
+      <c r="C2" s="45" t="str">
+        <f>CONCATENATE("'",A2,"' : '",B2,"',")</f>
+        <v>'NOP' : '0000000',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="str">
+        <f>Señales!A3</f>
+        <v>MOV B,A</v>
+      </c>
+      <c r="B3" s="45" t="str">
+        <f>Señales!B3</f>
+        <v>0000001</v>
+      </c>
+      <c r="C3" s="45" t="str">
+        <f t="shared" ref="C3:C66" si="0">CONCATENATE("'",A3,"' : '",B3,"',")</f>
+        <v>'MOV B,A' : '0000001',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="str">
+        <f>Señales!A4</f>
+        <v>MOV A,Lit</v>
+      </c>
+      <c r="B4" s="45" t="str">
+        <f>Señales!B4</f>
+        <v>0000010</v>
+      </c>
+      <c r="C4" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV A,Lit' : '0000010',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="str">
+        <f>Señales!A5</f>
+        <v>MOV B,Lit</v>
+      </c>
+      <c r="B5" s="45" t="str">
+        <f>Señales!B5</f>
+        <v>0000011</v>
+      </c>
+      <c r="C5" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV B,Lit' : '0000011',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="str">
+        <f>Señales!A6</f>
+        <v>MOV A,(Dir)</v>
+      </c>
+      <c r="B6" s="45" t="str">
+        <f>Señales!B6</f>
+        <v>0000100</v>
+      </c>
+      <c r="C6" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV A,(Dir)' : '0000100',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="str">
+        <f>Señales!A7</f>
+        <v>MOV B,(Dir)</v>
+      </c>
+      <c r="B7" s="45" t="str">
+        <f>Señales!B7</f>
+        <v>0000101</v>
+      </c>
+      <c r="C7" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV B,(Dir)' : '0000101',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="str">
+        <f>Señales!A8</f>
+        <v>MOV (Dir),A</v>
+      </c>
+      <c r="B8" s="45" t="str">
+        <f>Señales!B8</f>
+        <v>0000110</v>
+      </c>
+      <c r="C8" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV (Dir),A' : '0000110',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="str">
+        <f>Señales!A9</f>
+        <v>MOV (Dir),B</v>
+      </c>
+      <c r="B9" s="45" t="str">
+        <f>Señales!B9</f>
+        <v>0000111</v>
+      </c>
+      <c r="C9" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV (Dir),B' : '0000111',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="str">
+        <f>Señales!A10</f>
+        <v>MOV A,(B)</v>
+      </c>
+      <c r="B10" s="45" t="str">
+        <f>Señales!B10</f>
+        <v>0001000</v>
+      </c>
+      <c r="C10" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV A,(B)' : '0001000',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="str">
+        <f>Señales!A11</f>
+        <v>MOV B,(B)</v>
+      </c>
+      <c r="B11" s="45" t="str">
+        <f>Señales!B11</f>
+        <v>0001001</v>
+      </c>
+      <c r="C11" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV B,(B)' : '0001001',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="str">
+        <f>Señales!A12</f>
+        <v>MOV (B),A</v>
+      </c>
+      <c r="B12" s="45" t="str">
+        <f>Señales!B12</f>
+        <v>0001010</v>
+      </c>
+      <c r="C12" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOV (B),A' : '0001010',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="str">
+        <f>Señales!A13</f>
+        <v>ADD A,B</v>
+      </c>
+      <c r="B13" s="45" t="str">
+        <f>Señales!B13</f>
+        <v>0001011</v>
+      </c>
+      <c r="C13" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'ADD A,B' : '0001011',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="str">
+        <f>Señales!A14</f>
+        <v>ADD B,A</v>
+      </c>
+      <c r="B14" s="45" t="str">
+        <f>Señales!B14</f>
+        <v>0001100</v>
+      </c>
+      <c r="C14" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'ADD B,A' : '0001100',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="str">
+        <f>Señales!A15</f>
+        <v>ADD A,Lit</v>
+      </c>
+      <c r="B15" s="45" t="str">
+        <f>Señales!B15</f>
+        <v>0001101</v>
+      </c>
+      <c r="C15" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'ADD A,Lit' : '0001101',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="str">
+        <f>Señales!A16</f>
+        <v>ADD A,(Dir)</v>
+      </c>
+      <c r="B16" s="45" t="str">
+        <f>Señales!B16</f>
+        <v>0001110</v>
+      </c>
+      <c r="C16" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'ADD A,(Dir)' : '0001110',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="str">
+        <f>Señales!A17</f>
+        <v>ADD A,(B)</v>
+      </c>
+      <c r="B17" s="45" t="str">
+        <f>Señales!B17</f>
+        <v>0001111</v>
+      </c>
+      <c r="C17" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'ADD A,(B)' : '0001111',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="str">
+        <f>Señales!A18</f>
+        <v>ADD (Dir)</v>
+      </c>
+      <c r="B18" s="45" t="str">
+        <f>Señales!B18</f>
+        <v>0010000</v>
+      </c>
+      <c r="C18" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'ADD (Dir)' : '0010000',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="str">
+        <f>Señales!A19</f>
+        <v>SUB A,B</v>
+      </c>
+      <c r="B19" s="45" t="str">
+        <f>Señales!B19</f>
+        <v>0010001</v>
+      </c>
+      <c r="C19" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SUB A,B' : '0010001',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="str">
+        <f>Señales!A20</f>
+        <v>SUB B,A</v>
+      </c>
+      <c r="B20" s="45" t="str">
+        <f>Señales!B20</f>
+        <v>0010010</v>
+      </c>
+      <c r="C20" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SUB B,A' : '0010010',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="str">
+        <f>Señales!A21</f>
+        <v>SUB A,(Dir)</v>
+      </c>
+      <c r="B21" s="45" t="str">
+        <f>Señales!B21</f>
+        <v>0010011</v>
+      </c>
+      <c r="C21" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SUB A,(Dir)' : '0010011',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="str">
+        <f>Señales!A22</f>
+        <v>SUB A,(B)</v>
+      </c>
+      <c r="B22" s="45" t="str">
+        <f>Señales!B22</f>
+        <v>0010100</v>
+      </c>
+      <c r="C22" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SUB A,(B)' : '0010100',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="str">
+        <f>Señales!A23</f>
+        <v>SUB (Dir)</v>
+      </c>
+      <c r="B23" s="45" t="str">
+        <f>Señales!B23</f>
+        <v>0010101</v>
+      </c>
+      <c r="C23" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SUB (Dir)' : '0010101',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="str">
+        <f>Señales!A24</f>
+        <v>AND A,B</v>
+      </c>
+      <c r="B24" s="45" t="str">
+        <f>Señales!B24</f>
+        <v>0010110</v>
+      </c>
+      <c r="C24" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'AND A,B' : '0010110',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="str">
+        <f>Señales!A25</f>
+        <v>AND B,A</v>
+      </c>
+      <c r="B25" s="45" t="str">
+        <f>Señales!B25</f>
+        <v>0010111</v>
+      </c>
+      <c r="C25" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'AND B,A' : '0010111',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="str">
+        <f>Señales!A26</f>
+        <v>AND A,Lit</v>
+      </c>
+      <c r="B26" s="45" t="str">
+        <f>Señales!B26</f>
+        <v>0011000</v>
+      </c>
+      <c r="C26" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'AND A,Lit' : '0011000',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="str">
+        <f>Señales!A27</f>
+        <v>AND A,(Dir)</v>
+      </c>
+      <c r="B27" s="45" t="str">
+        <f>Señales!B27</f>
+        <v>0011001</v>
+      </c>
+      <c r="C27" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'AND A,(Dir)' : '0011001',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="str">
+        <f>Señales!A28</f>
+        <v>AND A,(B)</v>
+      </c>
+      <c r="B28" s="45" t="str">
+        <f>Señales!B28</f>
+        <v>0011010</v>
+      </c>
+      <c r="C28" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'AND A,(B)' : '0011010',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="str">
+        <f>Señales!A29</f>
+        <v>AND (Dir)</v>
+      </c>
+      <c r="B29" s="45" t="str">
+        <f>Señales!B29</f>
+        <v>0011011</v>
+      </c>
+      <c r="C29" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'AND (Dir)' : '0011011',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="str">
+        <f>Señales!A30</f>
+        <v>OR A,B</v>
+      </c>
+      <c r="B30" s="45" t="str">
+        <f>Señales!B30</f>
+        <v>0011100</v>
+      </c>
+      <c r="C30" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'OR A,B' : '0011100',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="str">
+        <f>Señales!A31</f>
+        <v>OR B,A</v>
+      </c>
+      <c r="B31" s="45" t="str">
+        <f>Señales!B31</f>
+        <v>0011101</v>
+      </c>
+      <c r="C31" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'OR B,A' : '0011101',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="str">
+        <f>Señales!A32</f>
+        <v>OR A,Lit</v>
+      </c>
+      <c r="B32" s="45" t="str">
+        <f>Señales!B32</f>
+        <v>0011110</v>
+      </c>
+      <c r="C32" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'OR A,Lit' : '0011110',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="str">
+        <f>Señales!A33</f>
+        <v>OR A,(Dir)</v>
+      </c>
+      <c r="B33" s="45" t="str">
+        <f>Señales!B33</f>
+        <v>0011111</v>
+      </c>
+      <c r="C33" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'OR A,(Dir)' : '0011111',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="str">
+        <f>Señales!A34</f>
+        <v>OR A,(B)</v>
+      </c>
+      <c r="B34" s="45" t="str">
+        <f>Señales!B34</f>
+        <v>0100000</v>
+      </c>
+      <c r="C34" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'OR A,(B)' : '0100000',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="str">
+        <f>Señales!A35</f>
+        <v>OR (Dir)</v>
+      </c>
+      <c r="B35" s="45" t="str">
+        <f>Señales!B35</f>
+        <v>0100001</v>
+      </c>
+      <c r="C35" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'OR (Dir)' : '0100001',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="str">
+        <f>Señales!A36</f>
+        <v>NOT A</v>
+      </c>
+      <c r="B36" s="45" t="str">
+        <f>Señales!B36</f>
+        <v>0100010</v>
+      </c>
+      <c r="C36" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'NOT A' : '0100010',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="45" t="str">
+        <f>Señales!A37</f>
+        <v>NOT B,A</v>
+      </c>
+      <c r="B37" s="45" t="str">
+        <f>Señales!B37</f>
+        <v xml:space="preserve">0100011 </v>
+      </c>
+      <c r="C37" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'NOT B,A' : '0100011 ',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="45">
+        <f>Señales!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="45" t="str">
+        <f>Señales!B38</f>
+        <v xml:space="preserve">0100100 </v>
+      </c>
+      <c r="C38" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0100100 ',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="45">
+        <f>Señales!A39</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="45" t="str">
+        <f>Señales!B39</f>
+        <v xml:space="preserve">0100101 </v>
+      </c>
+      <c r="C39" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0100101 ',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="45">
+        <f>Señales!A40</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="45" t="str">
+        <f>Señales!B40</f>
+        <v xml:space="preserve">0100110 </v>
+      </c>
+      <c r="C40" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0100110 ',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="45">
+        <f>Señales!A41</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="45" t="str">
+        <f>Señales!B41</f>
+        <v xml:space="preserve">0100111 </v>
+      </c>
+      <c r="C41" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0100111 ',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="str">
+        <f>Señales!A42</f>
+        <v>XOR A,B</v>
+      </c>
+      <c r="B42" s="45" t="str">
+        <f>Señales!B42</f>
+        <v>0101000</v>
+      </c>
+      <c r="C42" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'XOR A,B' : '0101000',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="str">
+        <f>Señales!A43</f>
+        <v>XOR B,A</v>
+      </c>
+      <c r="B43" s="45" t="str">
+        <f>Señales!B43</f>
+        <v>0101001</v>
+      </c>
+      <c r="C43" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'XOR B,A' : '0101001',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="str">
+        <f>Señales!A44</f>
+        <v>XOR A,Lit</v>
+      </c>
+      <c r="B44" s="45" t="str">
+        <f>Señales!B44</f>
+        <v>0101010</v>
+      </c>
+      <c r="C44" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'XOR A,Lit' : '0101010',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="45" t="str">
+        <f>Señales!A45</f>
+        <v>XOR A,(Dir)</v>
+      </c>
+      <c r="B45" s="45" t="str">
+        <f>Señales!B45</f>
+        <v>0101011</v>
+      </c>
+      <c r="C45" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'XOR A,(Dir)' : '0101011',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="45" t="str">
+        <f>Señales!A46</f>
+        <v>XOR A,(B)</v>
+      </c>
+      <c r="B46" s="45" t="str">
+        <f>Señales!B46</f>
+        <v>0101100</v>
+      </c>
+      <c r="C46" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'XOR A,(B)' : '0101100',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="45" t="str">
+        <f>Señales!A47</f>
+        <v>XOR (Dir)</v>
+      </c>
+      <c r="B47" s="45" t="str">
+        <f>Señales!B47</f>
+        <v>0101101</v>
+      </c>
+      <c r="C47" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'XOR (Dir)' : '0101101',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="45" t="str">
+        <f>Señales!A48</f>
+        <v>SHL A</v>
+      </c>
+      <c r="B48" s="45" t="str">
+        <f>Señales!B48</f>
+        <v>0101110</v>
+      </c>
+      <c r="C48" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SHL A' : '0101110',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="45" t="str">
+        <f>Señales!A49</f>
+        <v>SHL B,A</v>
+      </c>
+      <c r="B49" s="45" t="str">
+        <f>Señales!B49</f>
+        <v>0101111</v>
+      </c>
+      <c r="C49" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SHL B,A' : '0101111',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="45">
+        <f>Señales!A50</f>
+        <v>0</v>
+      </c>
+      <c r="B50" s="45" t="str">
+        <f>Señales!B50</f>
+        <v>0110000</v>
+      </c>
+      <c r="C50" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0110000',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="45">
+        <f>Señales!A51</f>
+        <v>0</v>
+      </c>
+      <c r="B51" s="45" t="str">
+        <f>Señales!B51</f>
+        <v>0110001</v>
+      </c>
+      <c r="C51" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0110001',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="45">
+        <f>Señales!A52</f>
+        <v>0</v>
+      </c>
+      <c r="B52" s="45" t="str">
+        <f>Señales!B52</f>
+        <v>0110010</v>
+      </c>
+      <c r="C52" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0110010',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="str">
+        <f>Señales!A53</f>
+        <v>SHL (Dir),A</v>
+      </c>
+      <c r="B53" s="45" t="str">
+        <f>Señales!B53</f>
+        <v>0110011</v>
+      </c>
+      <c r="C53" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SHL (Dir),A' : '0110011',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="str">
+        <f>Señales!A54</f>
+        <v>SHR A</v>
+      </c>
+      <c r="B54" s="45" t="str">
+        <f>Señales!B54</f>
+        <v>0110100</v>
+      </c>
+      <c r="C54" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SHR A' : '0110100',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="45" t="str">
+        <f>Señales!A55</f>
+        <v>SHR B,A</v>
+      </c>
+      <c r="B55" s="45" t="str">
+        <f>Señales!B55</f>
+        <v>0110101</v>
+      </c>
+      <c r="C55" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SHR B,A' : '0110101',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="45">
+        <f>Señales!A56</f>
+        <v>0</v>
+      </c>
+      <c r="B56" s="45" t="str">
+        <f>Señales!B56</f>
+        <v>0110110</v>
+      </c>
+      <c r="C56" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0110110',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="45">
+        <f>Señales!A57</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="45" t="str">
+        <f>Señales!B57</f>
+        <v>0110111</v>
+      </c>
+      <c r="C57" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0110111',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="45">
+        <f>Señales!A58</f>
+        <v>0</v>
+      </c>
+      <c r="B58" s="45" t="str">
+        <f>Señales!B58</f>
+        <v>0111000</v>
+      </c>
+      <c r="C58" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0111000',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="45" t="str">
+        <f>Señales!A59</f>
+        <v>SHR (Dir),A</v>
+      </c>
+      <c r="B59" s="45" t="str">
+        <f>Señales!B59</f>
+        <v>0111001</v>
+      </c>
+      <c r="C59" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'SHR (Dir),A' : '0111001',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="45" t="str">
+        <f>Señales!A60</f>
+        <v>INC (B)</v>
+      </c>
+      <c r="B60" s="45" t="str">
+        <f>Señales!B60</f>
+        <v>0111010</v>
+      </c>
+      <c r="C60" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'INC (B)' : '0111010',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="str">
+        <f>Señales!A61</f>
+        <v>CMP A,B</v>
+      </c>
+      <c r="B61" s="45" t="str">
+        <f>Señales!B61</f>
+        <v>0111011</v>
+      </c>
+      <c r="C61" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'CMP A,B' : '0111011',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="45" t="str">
+        <f>Señales!A62</f>
+        <v>CMP A,Lit</v>
+      </c>
+      <c r="B62" s="45" t="str">
+        <f>Señales!B62</f>
+        <v>0111100</v>
+      </c>
+      <c r="C62" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'CMP A,Lit' : '0111100',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="45" t="str">
+        <f>Señales!A63</f>
+        <v>JMP Ins</v>
+      </c>
+      <c r="B63" s="45" t="str">
+        <f>Señales!B63</f>
+        <v>0111101</v>
+      </c>
+      <c r="C63" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'JMP Ins' : '0111101',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="45">
+        <f>Señales!A64</f>
+        <v>0</v>
+      </c>
+      <c r="B64" s="45" t="str">
+        <f>Señales!B64</f>
+        <v>0111110</v>
+      </c>
+      <c r="C64" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0111110',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="45">
+        <f>Señales!A65</f>
+        <v>0</v>
+      </c>
+      <c r="B65" s="45" t="str">
+        <f>Señales!B65</f>
+        <v>0111111</v>
+      </c>
+      <c r="C65" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'0' : '0111111',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="45" t="str">
+        <f>Señales!A66</f>
+        <v>ADD B,Lit</v>
+      </c>
+      <c r="B66" s="45" t="str">
+        <f>Señales!B66</f>
+        <v>1000000</v>
+      </c>
+      <c r="C66" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>'ADD B,Lit' : '1000000',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="45" t="str">
+        <f>Señales!A67</f>
+        <v>ADD B,(Dir)</v>
+      </c>
+      <c r="B67" s="45" t="str">
+        <f>Señales!B67</f>
+        <v>1000001</v>
+      </c>
+      <c r="C67" s="45" t="str">
+        <f t="shared" ref="C67:C130" si="1">CONCATENATE("'",A67,"' : '",B67,"',")</f>
+        <v>'ADD B,(Dir)' : '1000001',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="45" t="str">
+        <f>Señales!A68</f>
+        <v>SUB A,Lit</v>
+      </c>
+      <c r="B68" s="45" t="str">
+        <f>Señales!B68</f>
+        <v>1000010</v>
+      </c>
+      <c r="C68" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'SUB A,Lit' : '1000010',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="45" t="str">
+        <f>Señales!A69</f>
+        <v>SUB B,Lit</v>
+      </c>
+      <c r="B69" s="45" t="str">
+        <f>Señales!B69</f>
+        <v>1000011</v>
+      </c>
+      <c r="C69" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'SUB B,Lit' : '1000011',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="45" t="str">
+        <f>Señales!A70</f>
+        <v>SUB B,(Dir)</v>
+      </c>
+      <c r="B70" s="45" t="str">
+        <f>Señales!B70</f>
+        <v>1000100</v>
+      </c>
+      <c r="C70" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'SUB B,(Dir)' : '1000100',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="45" t="str">
+        <f>Señales!A71</f>
+        <v>AND B,Lit</v>
+      </c>
+      <c r="B71" s="45" t="str">
+        <f>Señales!B71</f>
+        <v>1000101</v>
+      </c>
+      <c r="C71" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'AND B,Lit' : '1000101',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="45" t="str">
+        <f>Señales!A72</f>
+        <v>RET</v>
+      </c>
+      <c r="B72" s="45" t="str">
+        <f>Señales!B72</f>
+        <v>1000110</v>
+      </c>
+      <c r="C72" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'RET' : '1000110',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="45" t="str">
+        <f>Señales!A73</f>
+        <v>OR B,Lit</v>
+      </c>
+      <c r="B73" s="45" t="str">
+        <f>Señales!B73</f>
+        <v>1000111</v>
+      </c>
+      <c r="C73" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'OR B,Lit' : '1000111',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="45" t="str">
+        <f>Señales!A74</f>
+        <v>OR B,(Dir)</v>
+      </c>
+      <c r="B74" s="45" t="str">
+        <f>Señales!B74</f>
+        <v>1001000</v>
+      </c>
+      <c r="C74" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'OR B,(Dir)' : '1001000',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="45" t="str">
+        <f>Señales!A75</f>
+        <v>XOR B,Lit</v>
+      </c>
+      <c r="B75" s="45" t="str">
+        <f>Señales!B75</f>
+        <v>1001001</v>
+      </c>
+      <c r="C75" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'XOR B,Lit' : '1001001',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="45" t="str">
+        <f>Señales!A76</f>
+        <v>XOR B,(Dir)</v>
+      </c>
+      <c r="B76" s="45" t="str">
+        <f>Señales!B76</f>
+        <v>1001010</v>
+      </c>
+      <c r="C76" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'XOR B,(Dir)' : '1001010',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="45" t="str">
+        <f>Señales!A77</f>
+        <v>INC (Dir)</v>
+      </c>
+      <c r="B77" s="45" t="str">
+        <f>Señales!B77</f>
+        <v>1001011</v>
+      </c>
+      <c r="C77" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'INC (Dir)' : '1001011',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="45" t="str">
+        <f>Señales!A78</f>
+        <v>CMP A,(Dir)</v>
+      </c>
+      <c r="B78" s="45" t="str">
+        <f>Señales!B78</f>
+        <v>1001100</v>
+      </c>
+      <c r="C78" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'CMP A,(Dir)' : '1001100',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="45" t="str">
+        <f>Señales!A79</f>
+        <v>JEQ Ins</v>
+      </c>
+      <c r="B79" s="45" t="str">
+        <f>Señales!B79</f>
+        <v>1001101</v>
+      </c>
+      <c r="C79" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'JEQ Ins' : '1001101',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="45" t="str">
+        <f>Señales!A80</f>
+        <v>JNE Ins</v>
+      </c>
+      <c r="B80" s="45" t="str">
+        <f>Señales!B80</f>
+        <v>1001110</v>
+      </c>
+      <c r="C80" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'JNE Ins' : '1001110',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="45" t="str">
+        <f>Señales!A81</f>
+        <v>JGT Ins</v>
+      </c>
+      <c r="B81" s="45" t="str">
+        <f>Señales!B81</f>
+        <v>1001111</v>
+      </c>
+      <c r="C81" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'JGT Ins' : '1001111',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="45" t="str">
+        <f>Señales!A82</f>
+        <v>JLT Ins</v>
+      </c>
+      <c r="B82" s="45" t="str">
+        <f>Señales!B82</f>
+        <v>1010000</v>
+      </c>
+      <c r="C82" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'JLT Ins' : '1010000',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="45" t="str">
+        <f>Señales!A83</f>
+        <v>JGE Ins</v>
+      </c>
+      <c r="B83" s="45" t="str">
+        <f>Señales!B83</f>
+        <v>1010001</v>
+      </c>
+      <c r="C83" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'JGE Ins' : '1010001',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="45" t="str">
+        <f>Señales!A84</f>
+        <v>JLE Ins</v>
+      </c>
+      <c r="B84" s="45" t="str">
+        <f>Señales!B84</f>
+        <v>1010010</v>
+      </c>
+      <c r="C84" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'JLE Ins' : '1010010',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="45" t="str">
+        <f>Señales!A85</f>
+        <v>JCR Ins</v>
+      </c>
+      <c r="B85" s="45" t="str">
+        <f>Señales!B85</f>
+        <v>1010011</v>
+      </c>
+      <c r="C85" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'JCR Ins' : '1010011',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="45" t="str">
+        <f>Señales!A86</f>
+        <v>NOT (Dir),A</v>
+      </c>
+      <c r="B86" s="45" t="str">
+        <f>Señales!B86</f>
+        <v>1010100</v>
+      </c>
+      <c r="C86" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'NOT (Dir),A' : '1010100',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="45" t="str">
+        <f>Señales!A87</f>
+        <v>NOT (B),A</v>
+      </c>
+      <c r="B87" s="45" t="str">
+        <f>Señales!B87</f>
+        <v>1010101</v>
+      </c>
+      <c r="C87" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'NOT (B),A' : '1010101',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="45" t="str">
+        <f>Señales!A88</f>
+        <v>AND B,(Dir)</v>
+      </c>
+      <c r="B88" s="45" t="str">
+        <f>Señales!B88</f>
+        <v>1010110</v>
+      </c>
+      <c r="C88" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'AND B,(Dir)' : '1010110',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="45" t="str">
+        <f>Señales!A89</f>
+        <v>MOV (B),Lit</v>
+      </c>
+      <c r="B89" s="45" t="str">
+        <f>Señales!B89</f>
+        <v>1010111</v>
+      </c>
+      <c r="C89" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'MOV (B),Lit' : '1010111',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="45" t="str">
+        <f>Señales!A90</f>
+        <v>ADD B,(B)</v>
+      </c>
+      <c r="B90" s="45" t="str">
+        <f>Señales!B90</f>
+        <v>1011000</v>
+      </c>
+      <c r="C90" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'ADD B,(B)' : '1011000',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="45">
+        <f>Señales!A91</f>
+        <v>0</v>
+      </c>
+      <c r="B91" s="45" t="str">
+        <f>Señales!B91</f>
+        <v>1011001</v>
+      </c>
+      <c r="C91" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1011001',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="45" t="str">
+        <f>Señales!A92</f>
+        <v>SUB B,(B)</v>
+      </c>
+      <c r="B92" s="45" t="str">
+        <f>Señales!B92</f>
+        <v>1011010</v>
+      </c>
+      <c r="C92" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'SUB B,(B)' : '1011010',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="45" t="str">
+        <f>Señales!A93</f>
+        <v>AND B,(B)</v>
+      </c>
+      <c r="B93" s="45" t="str">
+        <f>Señales!B93</f>
+        <v>1011011</v>
+      </c>
+      <c r="C93" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'AND B,(B)' : '1011011',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="45" t="str">
+        <f>Señales!A94</f>
+        <v>OR B,(B)</v>
+      </c>
+      <c r="B94" s="45" t="str">
+        <f>Señales!B94</f>
+        <v>1011100</v>
+      </c>
+      <c r="C94" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'OR B,(B)' : '1011100',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="45" t="str">
+        <f>Señales!A95</f>
+        <v>CALL Dir</v>
+      </c>
+      <c r="B95" s="45" t="str">
+        <f>Señales!B95</f>
+        <v>1011101</v>
+      </c>
+      <c r="C95" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'CALL Dir' : '1011101',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="45" t="str">
+        <f>Señales!A96</f>
+        <v>PUSH A</v>
+      </c>
+      <c r="B96" s="45" t="str">
+        <f>Señales!B96</f>
+        <v>1011110</v>
+      </c>
+      <c r="C96" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'PUSH A' : '1011110',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="45" t="str">
+        <f>Señales!A97</f>
+        <v>PUSH B</v>
+      </c>
+      <c r="B97" s="45" t="str">
+        <f>Señales!B97</f>
+        <v>1011111</v>
+      </c>
+      <c r="C97" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'PUSH B' : '1011111',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="45" t="str">
+        <f>Señales!A98</f>
+        <v>POP A</v>
+      </c>
+      <c r="B98" s="45" t="str">
+        <f>Señales!B98</f>
+        <v>1100000</v>
+      </c>
+      <c r="C98" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'POP A' : '1100000',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="45" t="str">
+        <f>Señales!A99</f>
+        <v>POP B</v>
+      </c>
+      <c r="B99" s="45" t="str">
+        <f>Señales!B99</f>
+        <v>1100001</v>
+      </c>
+      <c r="C99" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'POP B' : '1100001',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="45" t="str">
+        <f>Señales!A100</f>
+        <v>XOR B,(B)</v>
+      </c>
+      <c r="B100" s="45" t="str">
+        <f>Señales!B100</f>
+        <v>1100010</v>
+      </c>
+      <c r="C100" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'XOR B,(B)' : '1100010',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="45" t="str">
+        <f>Señales!A101</f>
+        <v>SHL (B),A</v>
+      </c>
+      <c r="B101" s="45" t="str">
+        <f>Señales!B101</f>
+        <v>1100011</v>
+      </c>
+      <c r="C101" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'SHL (B),A' : '1100011',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="45" t="str">
+        <f>Señales!A102</f>
+        <v>SHR (B),A</v>
+      </c>
+      <c r="B102" s="45" t="str">
+        <f>Señales!B102</f>
+        <v>1100100</v>
+      </c>
+      <c r="C102" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'SHR (B),A' : '1100100',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="45">
+        <f>Señales!A103</f>
+        <v>0</v>
+      </c>
+      <c r="B103" s="45" t="str">
+        <f>Señales!B103</f>
+        <v>1100101</v>
+      </c>
+      <c r="C103" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1100101',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="45">
+        <f>Señales!A104</f>
+        <v>0</v>
+      </c>
+      <c r="B104" s="45" t="str">
+        <f>Señales!B104</f>
+        <v>1100110</v>
+      </c>
+      <c r="C104" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1100110',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="45" t="str">
+        <f>Señales!A105</f>
+        <v>CMP A,(B)</v>
+      </c>
+      <c r="B105" s="45" t="str">
+        <f>Señales!B105</f>
+        <v>1100111</v>
+      </c>
+      <c r="C105" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'CMP A,(B)' : '1100111',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="45" t="str">
+        <f>Señales!A106</f>
+        <v>IN A,Lit</v>
+      </c>
+      <c r="B106" s="45" t="str">
+        <f>Señales!B106</f>
+        <v>1101000</v>
+      </c>
+      <c r="C106" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'IN A,Lit' : '1101000',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="45" t="str">
+        <f>Señales!A107</f>
+        <v>IN B,Lit</v>
+      </c>
+      <c r="B107" s="45" t="str">
+        <f>Señales!B107</f>
+        <v>1101001</v>
+      </c>
+      <c r="C107" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'IN B,Lit' : '1101001',</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="45" t="str">
+        <f>Señales!A108</f>
+        <v>IN (B),Lit</v>
+      </c>
+      <c r="B108" s="45" t="str">
+        <f>Señales!B108</f>
+        <v>1101010</v>
+      </c>
+      <c r="C108" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'IN (B),Lit' : '1101010',</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="45" t="str">
+        <f>Señales!A109</f>
+        <v>DEC SP</v>
+      </c>
+      <c r="B109" s="45" t="str">
+        <f>Señales!B109</f>
+        <v>1101011</v>
+      </c>
+      <c r="C109" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'DEC SP' : '1101011',</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="45" t="str">
+        <f>Señales!A110</f>
+        <v>INC SP</v>
+      </c>
+      <c r="B110" s="45" t="str">
+        <f>Señales!B110</f>
+        <v>1101100</v>
+      </c>
+      <c r="C110" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'INC SP' : '1101100',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="45">
+        <f>Señales!A111</f>
+        <v>0</v>
+      </c>
+      <c r="B111" s="45" t="str">
+        <f>Señales!B111</f>
+        <v>1101101</v>
+      </c>
+      <c r="C111" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1101101',</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="45">
+        <f>Señales!A112</f>
+        <v>0</v>
+      </c>
+      <c r="B112" s="45" t="str">
+        <f>Señales!B112</f>
+        <v>1101110</v>
+      </c>
+      <c r="C112" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1101110',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="45">
+        <f>Señales!A113</f>
+        <v>0</v>
+      </c>
+      <c r="B113" s="45" t="str">
+        <f>Señales!B113</f>
+        <v>1101111</v>
+      </c>
+      <c r="C113" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1101111',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="45">
+        <f>Señales!A114</f>
+        <v>0</v>
+      </c>
+      <c r="B114" s="45" t="str">
+        <f>Señales!B114</f>
+        <v>1110000</v>
+      </c>
+      <c r="C114" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1110000',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="45">
+        <f>Señales!A115</f>
+        <v>0</v>
+      </c>
+      <c r="B115" s="45" t="str">
+        <f>Señales!B115</f>
+        <v>1110001</v>
+      </c>
+      <c r="C115" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1110001',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="45">
+        <f>Señales!A116</f>
+        <v>0</v>
+      </c>
+      <c r="B116" s="45" t="str">
+        <f>Señales!B116</f>
+        <v>1110010</v>
+      </c>
+      <c r="C116" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1110010',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="45">
+        <f>Señales!A117</f>
+        <v>0</v>
+      </c>
+      <c r="B117" s="45" t="str">
+        <f>Señales!B117</f>
+        <v>1110011</v>
+      </c>
+      <c r="C117" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1110011',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="45">
+        <f>Señales!A118</f>
+        <v>0</v>
+      </c>
+      <c r="B118" s="45" t="str">
+        <f>Señales!B118</f>
+        <v>1110100</v>
+      </c>
+      <c r="C118" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1110100',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="45">
+        <f>Señales!A119</f>
+        <v>0</v>
+      </c>
+      <c r="B119" s="45" t="str">
+        <f>Señales!B119</f>
+        <v>1110101</v>
+      </c>
+      <c r="C119" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1110101',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="45">
+        <f>Señales!A120</f>
+        <v>0</v>
+      </c>
+      <c r="B120" s="45" t="str">
+        <f>Señales!B120</f>
+        <v>1110110</v>
+      </c>
+      <c r="C120" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1110110',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="45">
+        <f>Señales!A121</f>
+        <v>0</v>
+      </c>
+      <c r="B121" s="45" t="str">
+        <f>Señales!B121</f>
+        <v>1110111</v>
+      </c>
+      <c r="C121" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1110111',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="45">
+        <f>Señales!A122</f>
+        <v>0</v>
+      </c>
+      <c r="B122" s="45" t="str">
+        <f>Señales!B122</f>
+        <v>1111000</v>
+      </c>
+      <c r="C122" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1111000',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="45">
+        <f>Señales!A123</f>
+        <v>0</v>
+      </c>
+      <c r="B123" s="45" t="str">
+        <f>Señales!B123</f>
+        <v>1111001</v>
+      </c>
+      <c r="C123" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1111001',</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="45">
+        <f>Señales!A124</f>
+        <v>0</v>
+      </c>
+      <c r="B124" s="45" t="str">
+        <f>Señales!B124</f>
+        <v>1111010</v>
+      </c>
+      <c r="C124" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1111010',</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="45">
+        <f>Señales!A125</f>
+        <v>0</v>
+      </c>
+      <c r="B125" s="45" t="str">
+        <f>Señales!B125</f>
+        <v>1111011</v>
+      </c>
+      <c r="C125" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1111011',</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="45">
+        <f>Señales!A126</f>
+        <v>0</v>
+      </c>
+      <c r="B126" s="45" t="str">
+        <f>Señales!B126</f>
+        <v>1111100</v>
+      </c>
+      <c r="C126" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1111100',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="45">
+        <f>Señales!A127</f>
+        <v>0</v>
+      </c>
+      <c r="B127" s="45" t="str">
+        <f>Señales!B127</f>
+        <v>1111101</v>
+      </c>
+      <c r="C127" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1111101',</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="45" t="str">
+        <f>Señales!A128</f>
+        <v>MOV A,B</v>
+      </c>
+      <c r="B128" s="45" t="str">
+        <f>Señales!B128</f>
+        <v>1111110</v>
+      </c>
+      <c r="C128" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'MOV A,B' : '1111110',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="45">
+        <f>Señales!A129</f>
+        <v>0</v>
+      </c>
+      <c r="B129" s="45" t="str">
+        <f>Señales!B129</f>
+        <v>1111111</v>
+      </c>
+      <c r="C129" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>'0' : '1111111',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/opcodes y señales.xlsx
+++ b/opcodes y señales.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Señales" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="319">
   <si>
     <t>Instrucción</t>
   </si>
@@ -1396,6 +1396,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1409,9 +1412,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2581,8 +2581,8 @@
   </sheetPr>
   <dimension ref="A1:IV131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showGridLines="0" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2620,23 +2620,23 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="42"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
@@ -10019,22 +10019,22 @@
       </c>
     </row>
     <row r="89" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="str">
+      <c r="A89" s="10">
         <f>'Nombre - Señales'!A89</f>
-        <v>MOV (B),Lit</v>
+        <v>0</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="12" t="str">
+      <c r="C89" s="12">
         <f>'Nombre - Señales'!C89</f>
         <v>0</v>
       </c>
-      <c r="D89" s="13" t="str">
+      <c r="D89" s="13">
         <f>'Nombre - Señales'!D89</f>
         <v>0</v>
       </c>
-      <c r="E89" s="12" t="str">
+      <c r="E89" s="12">
         <f>'Nombre - Señales'!E89</f>
         <v>0</v>
       </c>
@@ -10048,23 +10048,23 @@
       </c>
       <c r="H89" s="12" t="str">
         <f>MID('Nombre - Señales'!I89,2,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="str">
         <f>RIGHT('Nombre - Señales'!I89,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="13" t="str">
         <f>LEFT('Nombre - Señales'!K89,1)</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="K89" s="13" t="str">
         <f>MID('Nombre - Señales'!K89,2,1)</f>
-        <v>0</v>
+        <v>o</v>
       </c>
       <c r="L89" s="13" t="str">
         <f>RIGHT('Nombre - Señales'!K89,1)</f>
-        <v>0</v>
+        <v>e</v>
       </c>
       <c r="M89" s="12" t="str">
         <f>MID('Nombre - Señales'!M89,2,1)</f>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="N89" s="12" t="str">
         <f>RIGHT('Nombre - Señales'!M89,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="13" t="str">
         <f>RIGHT('Nombre - Señales'!O89,1)</f>
@@ -10080,27 +10080,27 @@
       </c>
       <c r="P89" s="12" t="str">
         <f>RIGHT('Nombre - Señales'!Q89,1)</f>
-        <v>e</v>
-      </c>
-      <c r="Q89" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="13">
         <f>'Nombre - Señales'!R89</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" s="12" t="str">
         <f>RIGHT('Nombre - Señales'!S89,1)</f>
         <v>0</v>
       </c>
-      <c r="S89" s="13" t="str">
+      <c r="S89" s="13">
         <f>'Nombre - Señales'!T89</f>
         <v>0</v>
       </c>
       <c r="T89" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>00e10000000110001</v>
+        <v>0001100000000Noe0</v>
       </c>
       <c r="U89" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>'00e10000000110001' when '1010111', --MOV (B),Lit</v>
+        <v>'0001100000000Noe0' when '1010111', --0</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -13468,9 +13468,9 @@
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17080,48 +17080,22 @@
       </c>
     </row>
     <row r="89" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
-        <v>181</v>
-      </c>
+      <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="J89" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N89" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="14"/>
     </row>
     <row r="90" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
@@ -25578,83 +25552,83 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="str">
+      <c r="A89" s="6">
         <f>Nombres!A89</f>
-        <v>MOV (B),Lit</v>
+        <v>0</v>
       </c>
       <c r="B89" s="7" t="str">
         <f>Nombres!B89</f>
         <v>1010111</v>
       </c>
-      <c r="C89" s="12" t="str">
+      <c r="C89" s="12">
         <f>Nombres!C89</f>
         <v>0</v>
       </c>
-      <c r="D89" s="13" t="str">
+      <c r="D89" s="13">
         <f>Nombres!D89</f>
         <v>0</v>
       </c>
-      <c r="E89" s="12" t="str">
+      <c r="E89" s="12">
         <f>Nombres!E89</f>
         <v>0</v>
       </c>
-      <c r="F89" s="13" t="str">
+      <c r="F89" s="13">
         <f>Nombres!F89</f>
-        <v>ZERO</v>
+        <v>0</v>
       </c>
       <c r="G89" s="14" t="str">
         <f>IF(F89=Transformador!$B$10,Transformador!$B$9,IF(F89=Transformador!$C$10,Transformador!$C$9,IF(F89=Transformador!$D$10,Transformador!$D$9,IF(F89=Transformador!$E$10,Transformador!$E$9,IF(F89=Transformador!$F$10,Transformador!$F$9,IF(F89=Transformador!$G$10,Transformador!$G$9,IF(F89=Transformador!$H$10,Transformador!$H$9,IF(F89=Transformador!$I$10,Transformador!$I$9,IF(F89="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>000</v>
-      </c>
-      <c r="H89" s="12" t="str">
+        <v>100</v>
+      </c>
+      <c r="H89" s="12">
         <f>Nombres!G89</f>
-        <v>LIT</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="str">
         <f>IF(H89=Transformador!$B$11,Transformador!$B$9,IF(H89=Transformador!$C$11,Transformador!$C$9,IF(H89=Transformador!$D$11,Transformador!$D$9,IF(H89=Transformador!$E$11,Transformador!$E$9,IF(H89=Transformador!$F$11,Transformador!$F$9,IF(H89=Transformador!$G$11,Transformador!$G$9,IF(H89=Transformador!$H$11,Transformador!$H$9,IF(H89=Transformador!$I$11,Transformador!$I$9,IF(H89="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>011</v>
-      </c>
-      <c r="J89" s="13" t="str">
+        <v>100</v>
+      </c>
+      <c r="J89" s="13">
         <f>Nombres!H89</f>
-        <v>ADD</v>
+        <v>0</v>
       </c>
       <c r="K89" s="13" t="str">
         <f>IF(J89=Transformador!$B$12,Transformador!$B$9,IF(J89=Transformador!$C$12,Transformador!$C$9,IF(J89=Transformador!$D$12,Transformador!$D$9,IF(J89=Transformador!$E$12,Transformador!$E$9,IF(J89=Transformador!$F$12,Transformador!$F$9,IF(J89=Transformador!$G$12,Transformador!$G$9,IF(J89=Transformador!$H$12,Transformador!$H$9,IF(J89=Transformador!$I$12,Transformador!$I$9,IF(J89="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>000</v>
-      </c>
-      <c r="L89" s="12" t="str">
+        <v>No Exise</v>
+      </c>
+      <c r="L89" s="12">
         <f>Nombres!I89</f>
-        <v>B</v>
+        <v>0</v>
       </c>
       <c r="M89" s="12" t="str">
         <f>IF(L89=Transformador!$B$13,Transformador!$B$9,IF(L89=Transformador!$C$13,Transformador!$C$9,IF(L89=Transformador!$D$13,Transformador!$D$9,IF(L89=Transformador!$E$13,Transformador!$E$9,IF(L89=Transformador!$F$13,Transformador!$F$9,IF(L89=Transformador!$G$13,Transformador!$G$9,IF(L89=Transformador!$H$13,Transformador!$H$9,IF(L89=Transformador!$I$13,Transformador!$I$9,IF(L89="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>010</v>
-      </c>
-      <c r="N89" s="13" t="str">
+        <v>011</v>
+      </c>
+      <c r="N89" s="13">
         <f>Nombres!J89</f>
-        <v>ALU</v>
+        <v>0</v>
       </c>
       <c r="O89" s="13" t="str">
         <f>IF(N89=Transformador!$B$14,Transformador!$B$9,IF(N89=Transformador!$C$14,Transformador!$C$9,IF(N89=Transformador!$D$14,Transformador!$D$9,IF(N89=Transformador!$E$14,Transformador!$E$9,IF(N89=Transformador!$F$14,Transformador!$F$9,IF(N89=Transformador!$G$14,Transformador!$G$9,IF(N89=Transformador!$H$14,Transformador!$H$9,IF(N89=Transformador!$I$14,Transformador!$I$9,IF(N89="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>000</v>
-      </c>
-      <c r="P89" s="12" t="str">
+        <v>010</v>
+      </c>
+      <c r="P89" s="12">
         <f>Nombres!K89</f>
         <v>0</v>
       </c>
       <c r="Q89" s="12" t="str">
         <f>IF(P89=Transformador!$B$15,Transformador!$B$9,IF(P89=Transformador!$C$15,Transformador!$C$9,IF(P89=Transformador!$D$15,Transformador!$D$9,IF(P89=Transformador!$E$15,Transformador!$E$9,IF(P89=Transformador!$F$15,Transformador!$F$9,IF(P89=Transformador!$G$15,Transformador!$G$9,IF(P89=Transformador!$H$15,Transformador!$H$9,IF(P89=Transformador!$I$15,Transformador!$I$9,IF(P89="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>No Exise</v>
-      </c>
-      <c r="R89" s="13" t="str">
+        <v>010</v>
+      </c>
+      <c r="R89" s="13">
         <f>Nombres!L89</f>
-        <v>1</v>
-      </c>
-      <c r="S89" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="S89" s="12">
         <f>Nombres!M89</f>
         <v>0</v>
       </c>
-      <c r="T89" s="13" t="str">
+      <c r="T89" s="13">
         <f>Nombres!N89</f>
         <v>0</v>
       </c>
@@ -29367,10 +29341,10 @@
       <c r="E1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="44"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="2" t="s">
         <v>292</v>
       </c>
@@ -29383,19 +29357,19 @@
       <c r="K1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="43" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="2" t="s">
         <v>299</v>
       </c>
@@ -38473,13 +38447,13 @@
       <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="str">
+      <c r="A89" s="22">
         <f>Señales!A89</f>
-        <v>MOV (B),Lit</v>
+        <v>0</v>
       </c>
       <c r="B89" s="22" t="str">
         <f>Señales!T89</f>
-        <v>00e10000000110001</v>
+        <v>0001100000000Noe0</v>
       </c>
       <c r="C89" s="22" t="str">
         <f>Original!T89</f>
@@ -39270,1810 +39244,1810 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.625" style="45"/>
-    <col min="3" max="3" width="20" style="45" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="45"/>
+    <col min="1" max="2" width="10.625" style="40"/>
+    <col min="3" max="3" width="20" style="40" customWidth="1"/>
+    <col min="4" max="16384" width="10.625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="str">
+      <c r="A2" s="40" t="str">
         <f>Señales!A2</f>
         <v>NOP</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="40" t="str">
         <f>Señales!B2</f>
         <v>0000000</v>
       </c>
-      <c r="C2" s="45" t="str">
+      <c r="C2" s="40" t="str">
         <f>CONCATENATE("'",A2,"' : '",B2,"',")</f>
         <v>'NOP' : '0000000',</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="str">
+      <c r="A3" s="40" t="str">
         <f>Señales!A3</f>
         <v>MOV B,A</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="40" t="str">
         <f>Señales!B3</f>
         <v>0000001</v>
       </c>
-      <c r="C3" s="45" t="str">
+      <c r="C3" s="40" t="str">
         <f t="shared" ref="C3:C66" si="0">CONCATENATE("'",A3,"' : '",B3,"',")</f>
         <v>'MOV B,A' : '0000001',</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="str">
+      <c r="A4" s="40" t="str">
         <f>Señales!A4</f>
         <v>MOV A,Lit</v>
       </c>
-      <c r="B4" s="45" t="str">
+      <c r="B4" s="40" t="str">
         <f>Señales!B4</f>
         <v>0000010</v>
       </c>
-      <c r="C4" s="45" t="str">
+      <c r="C4" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV A,Lit' : '0000010',</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="str">
+      <c r="A5" s="40" t="str">
         <f>Señales!A5</f>
         <v>MOV B,Lit</v>
       </c>
-      <c r="B5" s="45" t="str">
+      <c r="B5" s="40" t="str">
         <f>Señales!B5</f>
         <v>0000011</v>
       </c>
-      <c r="C5" s="45" t="str">
+      <c r="C5" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV B,Lit' : '0000011',</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="str">
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="str">
         <f>Señales!A6</f>
         <v>MOV A,(Dir)</v>
       </c>
-      <c r="B6" s="45" t="str">
+      <c r="B6" s="40" t="str">
         <f>Señales!B6</f>
         <v>0000100</v>
       </c>
-      <c r="C6" s="45" t="str">
+      <c r="C6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV A,(Dir)' : '0000100',</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="str">
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="str">
         <f>Señales!A7</f>
         <v>MOV B,(Dir)</v>
       </c>
-      <c r="B7" s="45" t="str">
+      <c r="B7" s="40" t="str">
         <f>Señales!B7</f>
         <v>0000101</v>
       </c>
-      <c r="C7" s="45" t="str">
+      <c r="C7" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV B,(Dir)' : '0000101',</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="str">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="str">
         <f>Señales!A8</f>
         <v>MOV (Dir),A</v>
       </c>
-      <c r="B8" s="45" t="str">
+      <c r="B8" s="40" t="str">
         <f>Señales!B8</f>
         <v>0000110</v>
       </c>
-      <c r="C8" s="45" t="str">
+      <c r="C8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV (Dir),A' : '0000110',</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="str">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="str">
         <f>Señales!A9</f>
         <v>MOV (Dir),B</v>
       </c>
-      <c r="B9" s="45" t="str">
+      <c r="B9" s="40" t="str">
         <f>Señales!B9</f>
         <v>0000111</v>
       </c>
-      <c r="C9" s="45" t="str">
+      <c r="C9" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV (Dir),B' : '0000111',</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="str">
+      <c r="A10" s="40" t="str">
         <f>Señales!A10</f>
         <v>MOV A,(B)</v>
       </c>
-      <c r="B10" s="45" t="str">
+      <c r="B10" s="40" t="str">
         <f>Señales!B10</f>
         <v>0001000</v>
       </c>
-      <c r="C10" s="45" t="str">
+      <c r="C10" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV A,(B)' : '0001000',</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="str">
+      <c r="A11" s="40" t="str">
         <f>Señales!A11</f>
         <v>MOV B,(B)</v>
       </c>
-      <c r="B11" s="45" t="str">
+      <c r="B11" s="40" t="str">
         <f>Señales!B11</f>
         <v>0001001</v>
       </c>
-      <c r="C11" s="45" t="str">
+      <c r="C11" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV B,(B)' : '0001001',</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="str">
+      <c r="A12" s="40" t="str">
         <f>Señales!A12</f>
         <v>MOV (B),A</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="40" t="str">
         <f>Señales!B12</f>
         <v>0001010</v>
       </c>
-      <c r="C12" s="45" t="str">
+      <c r="C12" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'MOV (B),A' : '0001010',</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="str">
+      <c r="A13" s="40" t="str">
         <f>Señales!A13</f>
         <v>ADD A,B</v>
       </c>
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="40" t="str">
         <f>Señales!B13</f>
         <v>0001011</v>
       </c>
-      <c r="C13" s="45" t="str">
+      <c r="C13" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'ADD A,B' : '0001011',</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="str">
+      <c r="A14" s="40" t="str">
         <f>Señales!A14</f>
         <v>ADD B,A</v>
       </c>
-      <c r="B14" s="45" t="str">
+      <c r="B14" s="40" t="str">
         <f>Señales!B14</f>
         <v>0001100</v>
       </c>
-      <c r="C14" s="45" t="str">
+      <c r="C14" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'ADD B,A' : '0001100',</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="str">
+      <c r="A15" s="40" t="str">
         <f>Señales!A15</f>
         <v>ADD A,Lit</v>
       </c>
-      <c r="B15" s="45" t="str">
+      <c r="B15" s="40" t="str">
         <f>Señales!B15</f>
         <v>0001101</v>
       </c>
-      <c r="C15" s="45" t="str">
+      <c r="C15" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'ADD A,Lit' : '0001101',</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="str">
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="str">
         <f>Señales!A16</f>
         <v>ADD A,(Dir)</v>
       </c>
-      <c r="B16" s="45" t="str">
+      <c r="B16" s="40" t="str">
         <f>Señales!B16</f>
         <v>0001110</v>
       </c>
-      <c r="C16" s="45" t="str">
+      <c r="C16" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'ADD A,(Dir)' : '0001110',</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="str">
+      <c r="A17" s="40" t="str">
         <f>Señales!A17</f>
         <v>ADD A,(B)</v>
       </c>
-      <c r="B17" s="45" t="str">
+      <c r="B17" s="40" t="str">
         <f>Señales!B17</f>
         <v>0001111</v>
       </c>
-      <c r="C17" s="45" t="str">
+      <c r="C17" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'ADD A,(B)' : '0001111',</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="str">
+      <c r="A18" s="40" t="str">
         <f>Señales!A18</f>
         <v>ADD (Dir)</v>
       </c>
-      <c r="B18" s="45" t="str">
+      <c r="B18" s="40" t="str">
         <f>Señales!B18</f>
         <v>0010000</v>
       </c>
-      <c r="C18" s="45" t="str">
+      <c r="C18" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'ADD (Dir)' : '0010000',</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="str">
+      <c r="A19" s="40" t="str">
         <f>Señales!A19</f>
         <v>SUB A,B</v>
       </c>
-      <c r="B19" s="45" t="str">
+      <c r="B19" s="40" t="str">
         <f>Señales!B19</f>
         <v>0010001</v>
       </c>
-      <c r="C19" s="45" t="str">
+      <c r="C19" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SUB A,B' : '0010001',</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="str">
+      <c r="A20" s="40" t="str">
         <f>Señales!A20</f>
         <v>SUB B,A</v>
       </c>
-      <c r="B20" s="45" t="str">
+      <c r="B20" s="40" t="str">
         <f>Señales!B20</f>
         <v>0010010</v>
       </c>
-      <c r="C20" s="45" t="str">
+      <c r="C20" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SUB B,A' : '0010010',</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="str">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="str">
         <f>Señales!A21</f>
         <v>SUB A,(Dir)</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="40" t="str">
         <f>Señales!B21</f>
         <v>0010011</v>
       </c>
-      <c r="C21" s="45" t="str">
+      <c r="C21" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SUB A,(Dir)' : '0010011',</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="str">
+      <c r="A22" s="40" t="str">
         <f>Señales!A22</f>
         <v>SUB A,(B)</v>
       </c>
-      <c r="B22" s="45" t="str">
+      <c r="B22" s="40" t="str">
         <f>Señales!B22</f>
         <v>0010100</v>
       </c>
-      <c r="C22" s="45" t="str">
+      <c r="C22" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SUB A,(B)' : '0010100',</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="str">
+      <c r="A23" s="40" t="str">
         <f>Señales!A23</f>
         <v>SUB (Dir)</v>
       </c>
-      <c r="B23" s="45" t="str">
+      <c r="B23" s="40" t="str">
         <f>Señales!B23</f>
         <v>0010101</v>
       </c>
-      <c r="C23" s="45" t="str">
+      <c r="C23" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SUB (Dir)' : '0010101',</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="str">
+      <c r="A24" s="40" t="str">
         <f>Señales!A24</f>
         <v>AND A,B</v>
       </c>
-      <c r="B24" s="45" t="str">
+      <c r="B24" s="40" t="str">
         <f>Señales!B24</f>
         <v>0010110</v>
       </c>
-      <c r="C24" s="45" t="str">
+      <c r="C24" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'AND A,B' : '0010110',</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="str">
+      <c r="A25" s="40" t="str">
         <f>Señales!A25</f>
         <v>AND B,A</v>
       </c>
-      <c r="B25" s="45" t="str">
+      <c r="B25" s="40" t="str">
         <f>Señales!B25</f>
         <v>0010111</v>
       </c>
-      <c r="C25" s="45" t="str">
+      <c r="C25" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'AND B,A' : '0010111',</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="str">
+      <c r="A26" s="40" t="str">
         <f>Señales!A26</f>
         <v>AND A,Lit</v>
       </c>
-      <c r="B26" s="45" t="str">
+      <c r="B26" s="40" t="str">
         <f>Señales!B26</f>
         <v>0011000</v>
       </c>
-      <c r="C26" s="45" t="str">
+      <c r="C26" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'AND A,Lit' : '0011000',</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="str">
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="str">
         <f>Señales!A27</f>
         <v>AND A,(Dir)</v>
       </c>
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="40" t="str">
         <f>Señales!B27</f>
         <v>0011001</v>
       </c>
-      <c r="C27" s="45" t="str">
+      <c r="C27" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'AND A,(Dir)' : '0011001',</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="str">
+      <c r="A28" s="40" t="str">
         <f>Señales!A28</f>
         <v>AND A,(B)</v>
       </c>
-      <c r="B28" s="45" t="str">
+      <c r="B28" s="40" t="str">
         <f>Señales!B28</f>
         <v>0011010</v>
       </c>
-      <c r="C28" s="45" t="str">
+      <c r="C28" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'AND A,(B)' : '0011010',</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="str">
+      <c r="A29" s="40" t="str">
         <f>Señales!A29</f>
         <v>AND (Dir)</v>
       </c>
-      <c r="B29" s="45" t="str">
+      <c r="B29" s="40" t="str">
         <f>Señales!B29</f>
         <v>0011011</v>
       </c>
-      <c r="C29" s="45" t="str">
+      <c r="C29" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'AND (Dir)' : '0011011',</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="str">
+      <c r="A30" s="40" t="str">
         <f>Señales!A30</f>
         <v>OR A,B</v>
       </c>
-      <c r="B30" s="45" t="str">
+      <c r="B30" s="40" t="str">
         <f>Señales!B30</f>
         <v>0011100</v>
       </c>
-      <c r="C30" s="45" t="str">
+      <c r="C30" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'OR A,B' : '0011100',</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="str">
+      <c r="A31" s="40" t="str">
         <f>Señales!A31</f>
         <v>OR B,A</v>
       </c>
-      <c r="B31" s="45" t="str">
+      <c r="B31" s="40" t="str">
         <f>Señales!B31</f>
         <v>0011101</v>
       </c>
-      <c r="C31" s="45" t="str">
+      <c r="C31" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'OR B,A' : '0011101',</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="str">
+      <c r="A32" s="40" t="str">
         <f>Señales!A32</f>
         <v>OR A,Lit</v>
       </c>
-      <c r="B32" s="45" t="str">
+      <c r="B32" s="40" t="str">
         <f>Señales!B32</f>
         <v>0011110</v>
       </c>
-      <c r="C32" s="45" t="str">
+      <c r="C32" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'OR A,Lit' : '0011110',</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="str">
+      <c r="A33" s="40" t="str">
         <f>Señales!A33</f>
         <v>OR A,(Dir)</v>
       </c>
-      <c r="B33" s="45" t="str">
+      <c r="B33" s="40" t="str">
         <f>Señales!B33</f>
         <v>0011111</v>
       </c>
-      <c r="C33" s="45" t="str">
+      <c r="C33" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'OR A,(Dir)' : '0011111',</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="str">
+      <c r="A34" s="40" t="str">
         <f>Señales!A34</f>
         <v>OR A,(B)</v>
       </c>
-      <c r="B34" s="45" t="str">
+      <c r="B34" s="40" t="str">
         <f>Señales!B34</f>
         <v>0100000</v>
       </c>
-      <c r="C34" s="45" t="str">
+      <c r="C34" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'OR A,(B)' : '0100000',</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="str">
+      <c r="A35" s="40" t="str">
         <f>Señales!A35</f>
         <v>OR (Dir)</v>
       </c>
-      <c r="B35" s="45" t="str">
+      <c r="B35" s="40" t="str">
         <f>Señales!B35</f>
         <v>0100001</v>
       </c>
-      <c r="C35" s="45" t="str">
+      <c r="C35" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'OR (Dir)' : '0100001',</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="str">
+      <c r="A36" s="40" t="str">
         <f>Señales!A36</f>
         <v>NOT A</v>
       </c>
-      <c r="B36" s="45" t="str">
+      <c r="B36" s="40" t="str">
         <f>Señales!B36</f>
         <v>0100010</v>
       </c>
-      <c r="C36" s="45" t="str">
+      <c r="C36" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'NOT A' : '0100010',</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="str">
+      <c r="A37" s="40" t="str">
         <f>Señales!A37</f>
         <v>NOT B,A</v>
       </c>
-      <c r="B37" s="45" t="str">
+      <c r="B37" s="40" t="str">
         <f>Señales!B37</f>
         <v xml:space="preserve">0100011 </v>
       </c>
-      <c r="C37" s="45" t="str">
+      <c r="C37" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'NOT B,A' : '0100011 ',</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="45">
+      <c r="A38" s="40">
         <f>Señales!A38</f>
         <v>0</v>
       </c>
-      <c r="B38" s="45" t="str">
+      <c r="B38" s="40" t="str">
         <f>Señales!B38</f>
         <v xml:space="preserve">0100100 </v>
       </c>
-      <c r="C38" s="45" t="str">
+      <c r="C38" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0100100 ',</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="45">
+      <c r="A39" s="40">
         <f>Señales!A39</f>
         <v>0</v>
       </c>
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="40" t="str">
         <f>Señales!B39</f>
         <v xml:space="preserve">0100101 </v>
       </c>
-      <c r="C39" s="45" t="str">
+      <c r="C39" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0100101 ',</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="45">
+      <c r="A40" s="40">
         <f>Señales!A40</f>
         <v>0</v>
       </c>
-      <c r="B40" s="45" t="str">
+      <c r="B40" s="40" t="str">
         <f>Señales!B40</f>
         <v xml:space="preserve">0100110 </v>
       </c>
-      <c r="C40" s="45" t="str">
+      <c r="C40" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0100110 ',</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="45">
+      <c r="A41" s="40">
         <f>Señales!A41</f>
         <v>0</v>
       </c>
-      <c r="B41" s="45" t="str">
+      <c r="B41" s="40" t="str">
         <f>Señales!B41</f>
         <v xml:space="preserve">0100111 </v>
       </c>
-      <c r="C41" s="45" t="str">
+      <c r="C41" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0100111 ',</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="str">
+      <c r="A42" s="40" t="str">
         <f>Señales!A42</f>
         <v>XOR A,B</v>
       </c>
-      <c r="B42" s="45" t="str">
+      <c r="B42" s="40" t="str">
         <f>Señales!B42</f>
         <v>0101000</v>
       </c>
-      <c r="C42" s="45" t="str">
+      <c r="C42" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'XOR A,B' : '0101000',</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="str">
+      <c r="A43" s="40" t="str">
         <f>Señales!A43</f>
         <v>XOR B,A</v>
       </c>
-      <c r="B43" s="45" t="str">
+      <c r="B43" s="40" t="str">
         <f>Señales!B43</f>
         <v>0101001</v>
       </c>
-      <c r="C43" s="45" t="str">
+      <c r="C43" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'XOR B,A' : '0101001',</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="str">
+      <c r="A44" s="40" t="str">
         <f>Señales!A44</f>
         <v>XOR A,Lit</v>
       </c>
-      <c r="B44" s="45" t="str">
+      <c r="B44" s="40" t="str">
         <f>Señales!B44</f>
         <v>0101010</v>
       </c>
-      <c r="C44" s="45" t="str">
+      <c r="C44" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'XOR A,Lit' : '0101010',</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="45" t="str">
+    <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="str">
         <f>Señales!A45</f>
         <v>XOR A,(Dir)</v>
       </c>
-      <c r="B45" s="45" t="str">
+      <c r="B45" s="40" t="str">
         <f>Señales!B45</f>
         <v>0101011</v>
       </c>
-      <c r="C45" s="45" t="str">
+      <c r="C45" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'XOR A,(Dir)' : '0101011',</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="str">
+      <c r="A46" s="40" t="str">
         <f>Señales!A46</f>
         <v>XOR A,(B)</v>
       </c>
-      <c r="B46" s="45" t="str">
+      <c r="B46" s="40" t="str">
         <f>Señales!B46</f>
         <v>0101100</v>
       </c>
-      <c r="C46" s="45" t="str">
+      <c r="C46" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'XOR A,(B)' : '0101100',</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="45" t="str">
+      <c r="A47" s="40" t="str">
         <f>Señales!A47</f>
         <v>XOR (Dir)</v>
       </c>
-      <c r="B47" s="45" t="str">
+      <c r="B47" s="40" t="str">
         <f>Señales!B47</f>
         <v>0101101</v>
       </c>
-      <c r="C47" s="45" t="str">
+      <c r="C47" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'XOR (Dir)' : '0101101',</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="str">
+      <c r="A48" s="40" t="str">
         <f>Señales!A48</f>
         <v>SHL A</v>
       </c>
-      <c r="B48" s="45" t="str">
+      <c r="B48" s="40" t="str">
         <f>Señales!B48</f>
         <v>0101110</v>
       </c>
-      <c r="C48" s="45" t="str">
+      <c r="C48" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SHL A' : '0101110',</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="45" t="str">
+      <c r="A49" s="40" t="str">
         <f>Señales!A49</f>
         <v>SHL B,A</v>
       </c>
-      <c r="B49" s="45" t="str">
+      <c r="B49" s="40" t="str">
         <f>Señales!B49</f>
         <v>0101111</v>
       </c>
-      <c r="C49" s="45" t="str">
+      <c r="C49" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SHL B,A' : '0101111',</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="45">
+      <c r="A50" s="40">
         <f>Señales!A50</f>
         <v>0</v>
       </c>
-      <c r="B50" s="45" t="str">
+      <c r="B50" s="40" t="str">
         <f>Señales!B50</f>
         <v>0110000</v>
       </c>
-      <c r="C50" s="45" t="str">
+      <c r="C50" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0110000',</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="45">
+      <c r="A51" s="40">
         <f>Señales!A51</f>
         <v>0</v>
       </c>
-      <c r="B51" s="45" t="str">
+      <c r="B51" s="40" t="str">
         <f>Señales!B51</f>
         <v>0110001</v>
       </c>
-      <c r="C51" s="45" t="str">
+      <c r="C51" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0110001',</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="45">
+      <c r="A52" s="40">
         <f>Señales!A52</f>
         <v>0</v>
       </c>
-      <c r="B52" s="45" t="str">
+      <c r="B52" s="40" t="str">
         <f>Señales!B52</f>
         <v>0110010</v>
       </c>
-      <c r="C52" s="45" t="str">
+      <c r="C52" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0110010',</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="str">
+      <c r="A53" s="40" t="str">
         <f>Señales!A53</f>
         <v>SHL (Dir),A</v>
       </c>
-      <c r="B53" s="45" t="str">
+      <c r="B53" s="40" t="str">
         <f>Señales!B53</f>
         <v>0110011</v>
       </c>
-      <c r="C53" s="45" t="str">
+      <c r="C53" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SHL (Dir),A' : '0110011',</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="str">
+      <c r="A54" s="40" t="str">
         <f>Señales!A54</f>
         <v>SHR A</v>
       </c>
-      <c r="B54" s="45" t="str">
+      <c r="B54" s="40" t="str">
         <f>Señales!B54</f>
         <v>0110100</v>
       </c>
-      <c r="C54" s="45" t="str">
+      <c r="C54" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SHR A' : '0110100',</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="45" t="str">
+      <c r="A55" s="40" t="str">
         <f>Señales!A55</f>
         <v>SHR B,A</v>
       </c>
-      <c r="B55" s="45" t="str">
+      <c r="B55" s="40" t="str">
         <f>Señales!B55</f>
         <v>0110101</v>
       </c>
-      <c r="C55" s="45" t="str">
+      <c r="C55" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SHR B,A' : '0110101',</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="45">
+      <c r="A56" s="40">
         <f>Señales!A56</f>
         <v>0</v>
       </c>
-      <c r="B56" s="45" t="str">
+      <c r="B56" s="40" t="str">
         <f>Señales!B56</f>
         <v>0110110</v>
       </c>
-      <c r="C56" s="45" t="str">
+      <c r="C56" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0110110',</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="45">
+      <c r="A57" s="40">
         <f>Señales!A57</f>
         <v>0</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="40" t="str">
         <f>Señales!B57</f>
         <v>0110111</v>
       </c>
-      <c r="C57" s="45" t="str">
+      <c r="C57" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0110111',</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="45">
+      <c r="A58" s="40">
         <f>Señales!A58</f>
         <v>0</v>
       </c>
-      <c r="B58" s="45" t="str">
+      <c r="B58" s="40" t="str">
         <f>Señales!B58</f>
         <v>0111000</v>
       </c>
-      <c r="C58" s="45" t="str">
+      <c r="C58" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0111000',</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="45" t="str">
+    <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="str">
         <f>Señales!A59</f>
         <v>SHR (Dir),A</v>
       </c>
-      <c r="B59" s="45" t="str">
+      <c r="B59" s="40" t="str">
         <f>Señales!B59</f>
         <v>0111001</v>
       </c>
-      <c r="C59" s="45" t="str">
+      <c r="C59" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'SHR (Dir),A' : '0111001',</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="45" t="str">
+      <c r="A60" s="40" t="str">
         <f>Señales!A60</f>
         <v>INC (B)</v>
       </c>
-      <c r="B60" s="45" t="str">
+      <c r="B60" s="40" t="str">
         <f>Señales!B60</f>
         <v>0111010</v>
       </c>
-      <c r="C60" s="45" t="str">
+      <c r="C60" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'INC (B)' : '0111010',</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="str">
+      <c r="A61" s="40" t="str">
         <f>Señales!A61</f>
         <v>CMP A,B</v>
       </c>
-      <c r="B61" s="45" t="str">
+      <c r="B61" s="40" t="str">
         <f>Señales!B61</f>
         <v>0111011</v>
       </c>
-      <c r="C61" s="45" t="str">
+      <c r="C61" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'CMP A,B' : '0111011',</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="45" t="str">
+      <c r="A62" s="40" t="str">
         <f>Señales!A62</f>
         <v>CMP A,Lit</v>
       </c>
-      <c r="B62" s="45" t="str">
+      <c r="B62" s="40" t="str">
         <f>Señales!B62</f>
         <v>0111100</v>
       </c>
-      <c r="C62" s="45" t="str">
+      <c r="C62" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'CMP A,Lit' : '0111100',</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="str">
+      <c r="A63" s="40" t="str">
         <f>Señales!A63</f>
         <v>JMP Ins</v>
       </c>
-      <c r="B63" s="45" t="str">
+      <c r="B63" s="40" t="str">
         <f>Señales!B63</f>
         <v>0111101</v>
       </c>
-      <c r="C63" s="45" t="str">
+      <c r="C63" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'JMP Ins' : '0111101',</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="45">
+      <c r="A64" s="40">
         <f>Señales!A64</f>
         <v>0</v>
       </c>
-      <c r="B64" s="45" t="str">
+      <c r="B64" s="40" t="str">
         <f>Señales!B64</f>
         <v>0111110</v>
       </c>
-      <c r="C64" s="45" t="str">
+      <c r="C64" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0111110',</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="45">
+      <c r="A65" s="40">
         <f>Señales!A65</f>
         <v>0</v>
       </c>
-      <c r="B65" s="45" t="str">
+      <c r="B65" s="40" t="str">
         <f>Señales!B65</f>
         <v>0111111</v>
       </c>
-      <c r="C65" s="45" t="str">
+      <c r="C65" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'0' : '0111111',</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="str">
+      <c r="A66" s="40" t="str">
         <f>Señales!A66</f>
         <v>ADD B,Lit</v>
       </c>
-      <c r="B66" s="45" t="str">
+      <c r="B66" s="40" t="str">
         <f>Señales!B66</f>
         <v>1000000</v>
       </c>
-      <c r="C66" s="45" t="str">
+      <c r="C66" s="40" t="str">
         <f t="shared" si="0"/>
         <v>'ADD B,Lit' : '1000000',</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="str">
+    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="40" t="str">
         <f>Señales!A67</f>
         <v>ADD B,(Dir)</v>
       </c>
-      <c r="B67" s="45" t="str">
+      <c r="B67" s="40" t="str">
         <f>Señales!B67</f>
         <v>1000001</v>
       </c>
-      <c r="C67" s="45" t="str">
-        <f t="shared" ref="C67:C130" si="1">CONCATENATE("'",A67,"' : '",B67,"',")</f>
+      <c r="C67" s="40" t="str">
+        <f t="shared" ref="C67:C129" si="1">CONCATENATE("'",A67,"' : '",B67,"',")</f>
         <v>'ADD B,(Dir)' : '1000001',</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="45" t="str">
+      <c r="A68" s="40" t="str">
         <f>Señales!A68</f>
         <v>SUB A,Lit</v>
       </c>
-      <c r="B68" s="45" t="str">
+      <c r="B68" s="40" t="str">
         <f>Señales!B68</f>
         <v>1000010</v>
       </c>
-      <c r="C68" s="45" t="str">
+      <c r="C68" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'SUB A,Lit' : '1000010',</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="45" t="str">
+      <c r="A69" s="40" t="str">
         <f>Señales!A69</f>
         <v>SUB B,Lit</v>
       </c>
-      <c r="B69" s="45" t="str">
+      <c r="B69" s="40" t="str">
         <f>Señales!B69</f>
         <v>1000011</v>
       </c>
-      <c r="C69" s="45" t="str">
+      <c r="C69" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'SUB B,Lit' : '1000011',</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="45" t="str">
+    <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="40" t="str">
         <f>Señales!A70</f>
         <v>SUB B,(Dir)</v>
       </c>
-      <c r="B70" s="45" t="str">
+      <c r="B70" s="40" t="str">
         <f>Señales!B70</f>
         <v>1000100</v>
       </c>
-      <c r="C70" s="45" t="str">
+      <c r="C70" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'SUB B,(Dir)' : '1000100',</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="45" t="str">
+      <c r="A71" s="40" t="str">
         <f>Señales!A71</f>
         <v>AND B,Lit</v>
       </c>
-      <c r="B71" s="45" t="str">
+      <c r="B71" s="40" t="str">
         <f>Señales!B71</f>
         <v>1000101</v>
       </c>
-      <c r="C71" s="45" t="str">
+      <c r="C71" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'AND B,Lit' : '1000101',</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="45" t="str">
+      <c r="A72" s="40" t="str">
         <f>Señales!A72</f>
         <v>RET</v>
       </c>
-      <c r="B72" s="45" t="str">
+      <c r="B72" s="40" t="str">
         <f>Señales!B72</f>
         <v>1000110</v>
       </c>
-      <c r="C72" s="45" t="str">
+      <c r="C72" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'RET' : '1000110',</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="45" t="str">
+      <c r="A73" s="40" t="str">
         <f>Señales!A73</f>
         <v>OR B,Lit</v>
       </c>
-      <c r="B73" s="45" t="str">
+      <c r="B73" s="40" t="str">
         <f>Señales!B73</f>
         <v>1000111</v>
       </c>
-      <c r="C73" s="45" t="str">
+      <c r="C73" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'OR B,Lit' : '1000111',</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="45" t="str">
+      <c r="A74" s="40" t="str">
         <f>Señales!A74</f>
         <v>OR B,(Dir)</v>
       </c>
-      <c r="B74" s="45" t="str">
+      <c r="B74" s="40" t="str">
         <f>Señales!B74</f>
         <v>1001000</v>
       </c>
-      <c r="C74" s="45" t="str">
+      <c r="C74" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'OR B,(Dir)' : '1001000',</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="45" t="str">
+      <c r="A75" s="40" t="str">
         <f>Señales!A75</f>
         <v>XOR B,Lit</v>
       </c>
-      <c r="B75" s="45" t="str">
+      <c r="B75" s="40" t="str">
         <f>Señales!B75</f>
         <v>1001001</v>
       </c>
-      <c r="C75" s="45" t="str">
+      <c r="C75" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'XOR B,Lit' : '1001001',</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="45" t="str">
+    <row r="76" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="40" t="str">
         <f>Señales!A76</f>
         <v>XOR B,(Dir)</v>
       </c>
-      <c r="B76" s="45" t="str">
+      <c r="B76" s="40" t="str">
         <f>Señales!B76</f>
         <v>1001010</v>
       </c>
-      <c r="C76" s="45" t="str">
+      <c r="C76" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'XOR B,(Dir)' : '1001010',</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="45" t="str">
+      <c r="A77" s="40" t="str">
         <f>Señales!A77</f>
         <v>INC (Dir)</v>
       </c>
-      <c r="B77" s="45" t="str">
+      <c r="B77" s="40" t="str">
         <f>Señales!B77</f>
         <v>1001011</v>
       </c>
-      <c r="C77" s="45" t="str">
+      <c r="C77" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'INC (Dir)' : '1001011',</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="45" t="str">
+    <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="40" t="str">
         <f>Señales!A78</f>
         <v>CMP A,(Dir)</v>
       </c>
-      <c r="B78" s="45" t="str">
+      <c r="B78" s="40" t="str">
         <f>Señales!B78</f>
         <v>1001100</v>
       </c>
-      <c r="C78" s="45" t="str">
+      <c r="C78" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'CMP A,(Dir)' : '1001100',</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="45" t="str">
+      <c r="A79" s="40" t="str">
         <f>Señales!A79</f>
         <v>JEQ Ins</v>
       </c>
-      <c r="B79" s="45" t="str">
+      <c r="B79" s="40" t="str">
         <f>Señales!B79</f>
         <v>1001101</v>
       </c>
-      <c r="C79" s="45" t="str">
+      <c r="C79" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'JEQ Ins' : '1001101',</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="45" t="str">
+      <c r="A80" s="40" t="str">
         <f>Señales!A80</f>
         <v>JNE Ins</v>
       </c>
-      <c r="B80" s="45" t="str">
+      <c r="B80" s="40" t="str">
         <f>Señales!B80</f>
         <v>1001110</v>
       </c>
-      <c r="C80" s="45" t="str">
+      <c r="C80" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'JNE Ins' : '1001110',</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="45" t="str">
+      <c r="A81" s="40" t="str">
         <f>Señales!A81</f>
         <v>JGT Ins</v>
       </c>
-      <c r="B81" s="45" t="str">
+      <c r="B81" s="40" t="str">
         <f>Señales!B81</f>
         <v>1001111</v>
       </c>
-      <c r="C81" s="45" t="str">
+      <c r="C81" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'JGT Ins' : '1001111',</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="45" t="str">
+      <c r="A82" s="40" t="str">
         <f>Señales!A82</f>
         <v>JLT Ins</v>
       </c>
-      <c r="B82" s="45" t="str">
+      <c r="B82" s="40" t="str">
         <f>Señales!B82</f>
         <v>1010000</v>
       </c>
-      <c r="C82" s="45" t="str">
+      <c r="C82" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'JLT Ins' : '1010000',</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="45" t="str">
+      <c r="A83" s="40" t="str">
         <f>Señales!A83</f>
         <v>JGE Ins</v>
       </c>
-      <c r="B83" s="45" t="str">
+      <c r="B83" s="40" t="str">
         <f>Señales!B83</f>
         <v>1010001</v>
       </c>
-      <c r="C83" s="45" t="str">
+      <c r="C83" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'JGE Ins' : '1010001',</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="45" t="str">
+      <c r="A84" s="40" t="str">
         <f>Señales!A84</f>
         <v>JLE Ins</v>
       </c>
-      <c r="B84" s="45" t="str">
+      <c r="B84" s="40" t="str">
         <f>Señales!B84</f>
         <v>1010010</v>
       </c>
-      <c r="C84" s="45" t="str">
+      <c r="C84" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'JLE Ins' : '1010010',</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="45" t="str">
+      <c r="A85" s="40" t="str">
         <f>Señales!A85</f>
         <v>JCR Ins</v>
       </c>
-      <c r="B85" s="45" t="str">
+      <c r="B85" s="40" t="str">
         <f>Señales!B85</f>
         <v>1010011</v>
       </c>
-      <c r="C85" s="45" t="str">
+      <c r="C85" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'JCR Ins' : '1010011',</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="45" t="str">
+    <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="40" t="str">
         <f>Señales!A86</f>
         <v>NOT (Dir),A</v>
       </c>
-      <c r="B86" s="45" t="str">
+      <c r="B86" s="40" t="str">
         <f>Señales!B86</f>
         <v>1010100</v>
       </c>
-      <c r="C86" s="45" t="str">
+      <c r="C86" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'NOT (Dir),A' : '1010100',</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="45" t="str">
+      <c r="A87" s="40" t="str">
         <f>Señales!A87</f>
         <v>NOT (B),A</v>
       </c>
-      <c r="B87" s="45" t="str">
+      <c r="B87" s="40" t="str">
         <f>Señales!B87</f>
         <v>1010101</v>
       </c>
-      <c r="C87" s="45" t="str">
+      <c r="C87" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'NOT (B),A' : '1010101',</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="45" t="str">
+    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="40" t="str">
         <f>Señales!A88</f>
         <v>AND B,(Dir)</v>
       </c>
-      <c r="B88" s="45" t="str">
+      <c r="B88" s="40" t="str">
         <f>Señales!B88</f>
         <v>1010110</v>
       </c>
-      <c r="C88" s="45" t="str">
+      <c r="C88" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'AND B,(Dir)' : '1010110',</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="45" t="str">
+      <c r="A89" s="40">
         <f>Señales!A89</f>
-        <v>MOV (B),Lit</v>
-      </c>
-      <c r="B89" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="B89" s="40" t="str">
         <f>Señales!B89</f>
         <v>1010111</v>
       </c>
-      <c r="C89" s="45" t="str">
+      <c r="C89" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>'MOV (B),Lit' : '1010111',</v>
+        <v>'0' : '1010111',</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="45" t="str">
+      <c r="A90" s="40" t="str">
         <f>Señales!A90</f>
         <v>ADD B,(B)</v>
       </c>
-      <c r="B90" s="45" t="str">
+      <c r="B90" s="40" t="str">
         <f>Señales!B90</f>
         <v>1011000</v>
       </c>
-      <c r="C90" s="45" t="str">
+      <c r="C90" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'ADD B,(B)' : '1011000',</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="45">
+      <c r="A91" s="40">
         <f>Señales!A91</f>
         <v>0</v>
       </c>
-      <c r="B91" s="45" t="str">
+      <c r="B91" s="40" t="str">
         <f>Señales!B91</f>
         <v>1011001</v>
       </c>
-      <c r="C91" s="45" t="str">
+      <c r="C91" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1011001',</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="45" t="str">
+      <c r="A92" s="40" t="str">
         <f>Señales!A92</f>
         <v>SUB B,(B)</v>
       </c>
-      <c r="B92" s="45" t="str">
+      <c r="B92" s="40" t="str">
         <f>Señales!B92</f>
         <v>1011010</v>
       </c>
-      <c r="C92" s="45" t="str">
+      <c r="C92" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'SUB B,(B)' : '1011010',</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="45" t="str">
+      <c r="A93" s="40" t="str">
         <f>Señales!A93</f>
         <v>AND B,(B)</v>
       </c>
-      <c r="B93" s="45" t="str">
+      <c r="B93" s="40" t="str">
         <f>Señales!B93</f>
         <v>1011011</v>
       </c>
-      <c r="C93" s="45" t="str">
+      <c r="C93" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'AND B,(B)' : '1011011',</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="45" t="str">
+      <c r="A94" s="40" t="str">
         <f>Señales!A94</f>
         <v>OR B,(B)</v>
       </c>
-      <c r="B94" s="45" t="str">
+      <c r="B94" s="40" t="str">
         <f>Señales!B94</f>
         <v>1011100</v>
       </c>
-      <c r="C94" s="45" t="str">
+      <c r="C94" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'OR B,(B)' : '1011100',</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="45" t="str">
+      <c r="A95" s="40" t="str">
         <f>Señales!A95</f>
         <v>CALL Dir</v>
       </c>
-      <c r="B95" s="45" t="str">
+      <c r="B95" s="40" t="str">
         <f>Señales!B95</f>
         <v>1011101</v>
       </c>
-      <c r="C95" s="45" t="str">
+      <c r="C95" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'CALL Dir' : '1011101',</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="45" t="str">
+      <c r="A96" s="40" t="str">
         <f>Señales!A96</f>
         <v>PUSH A</v>
       </c>
-      <c r="B96" s="45" t="str">
+      <c r="B96" s="40" t="str">
         <f>Señales!B96</f>
         <v>1011110</v>
       </c>
-      <c r="C96" s="45" t="str">
+      <c r="C96" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'PUSH A' : '1011110',</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="45" t="str">
+      <c r="A97" s="40" t="str">
         <f>Señales!A97</f>
         <v>PUSH B</v>
       </c>
-      <c r="B97" s="45" t="str">
+      <c r="B97" s="40" t="str">
         <f>Señales!B97</f>
         <v>1011111</v>
       </c>
-      <c r="C97" s="45" t="str">
+      <c r="C97" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'PUSH B' : '1011111',</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="45" t="str">
+      <c r="A98" s="40" t="str">
         <f>Señales!A98</f>
         <v>POP A</v>
       </c>
-      <c r="B98" s="45" t="str">
+      <c r="B98" s="40" t="str">
         <f>Señales!B98</f>
         <v>1100000</v>
       </c>
-      <c r="C98" s="45" t="str">
+      <c r="C98" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'POP A' : '1100000',</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="45" t="str">
+      <c r="A99" s="40" t="str">
         <f>Señales!A99</f>
         <v>POP B</v>
       </c>
-      <c r="B99" s="45" t="str">
+      <c r="B99" s="40" t="str">
         <f>Señales!B99</f>
         <v>1100001</v>
       </c>
-      <c r="C99" s="45" t="str">
+      <c r="C99" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'POP B' : '1100001',</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="45" t="str">
+      <c r="A100" s="40" t="str">
         <f>Señales!A100</f>
         <v>XOR B,(B)</v>
       </c>
-      <c r="B100" s="45" t="str">
+      <c r="B100" s="40" t="str">
         <f>Señales!B100</f>
         <v>1100010</v>
       </c>
-      <c r="C100" s="45" t="str">
+      <c r="C100" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'XOR B,(B)' : '1100010',</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="45" t="str">
+      <c r="A101" s="40" t="str">
         <f>Señales!A101</f>
         <v>SHL (B),A</v>
       </c>
-      <c r="B101" s="45" t="str">
+      <c r="B101" s="40" t="str">
         <f>Señales!B101</f>
         <v>1100011</v>
       </c>
-      <c r="C101" s="45" t="str">
+      <c r="C101" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'SHL (B),A' : '1100011',</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="45" t="str">
+      <c r="A102" s="40" t="str">
         <f>Señales!A102</f>
         <v>SHR (B),A</v>
       </c>
-      <c r="B102" s="45" t="str">
+      <c r="B102" s="40" t="str">
         <f>Señales!B102</f>
         <v>1100100</v>
       </c>
-      <c r="C102" s="45" t="str">
+      <c r="C102" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'SHR (B),A' : '1100100',</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="45">
+      <c r="A103" s="40">
         <f>Señales!A103</f>
         <v>0</v>
       </c>
-      <c r="B103" s="45" t="str">
+      <c r="B103" s="40" t="str">
         <f>Señales!B103</f>
         <v>1100101</v>
       </c>
-      <c r="C103" s="45" t="str">
+      <c r="C103" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1100101',</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="45">
+      <c r="A104" s="40">
         <f>Señales!A104</f>
         <v>0</v>
       </c>
-      <c r="B104" s="45" t="str">
+      <c r="B104" s="40" t="str">
         <f>Señales!B104</f>
         <v>1100110</v>
       </c>
-      <c r="C104" s="45" t="str">
+      <c r="C104" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1100110',</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="45" t="str">
+      <c r="A105" s="40" t="str">
         <f>Señales!A105</f>
         <v>CMP A,(B)</v>
       </c>
-      <c r="B105" s="45" t="str">
+      <c r="B105" s="40" t="str">
         <f>Señales!B105</f>
         <v>1100111</v>
       </c>
-      <c r="C105" s="45" t="str">
+      <c r="C105" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'CMP A,(B)' : '1100111',</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="45" t="str">
+      <c r="A106" s="40" t="str">
         <f>Señales!A106</f>
         <v>IN A,Lit</v>
       </c>
-      <c r="B106" s="45" t="str">
+      <c r="B106" s="40" t="str">
         <f>Señales!B106</f>
         <v>1101000</v>
       </c>
-      <c r="C106" s="45" t="str">
+      <c r="C106" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'IN A,Lit' : '1101000',</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="45" t="str">
+      <c r="A107" s="40" t="str">
         <f>Señales!A107</f>
         <v>IN B,Lit</v>
       </c>
-      <c r="B107" s="45" t="str">
+      <c r="B107" s="40" t="str">
         <f>Señales!B107</f>
         <v>1101001</v>
       </c>
-      <c r="C107" s="45" t="str">
+      <c r="C107" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'IN B,Lit' : '1101001',</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="45" t="str">
+      <c r="A108" s="40" t="str">
         <f>Señales!A108</f>
         <v>IN (B),Lit</v>
       </c>
-      <c r="B108" s="45" t="str">
+      <c r="B108" s="40" t="str">
         <f>Señales!B108</f>
         <v>1101010</v>
       </c>
-      <c r="C108" s="45" t="str">
+      <c r="C108" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'IN (B),Lit' : '1101010',</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="45" t="str">
+      <c r="A109" s="40" t="str">
         <f>Señales!A109</f>
         <v>DEC SP</v>
       </c>
-      <c r="B109" s="45" t="str">
+      <c r="B109" s="40" t="str">
         <f>Señales!B109</f>
         <v>1101011</v>
       </c>
-      <c r="C109" s="45" t="str">
+      <c r="C109" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'DEC SP' : '1101011',</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="45" t="str">
+      <c r="A110" s="40" t="str">
         <f>Señales!A110</f>
         <v>INC SP</v>
       </c>
-      <c r="B110" s="45" t="str">
+      <c r="B110" s="40" t="str">
         <f>Señales!B110</f>
         <v>1101100</v>
       </c>
-      <c r="C110" s="45" t="str">
+      <c r="C110" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'INC SP' : '1101100',</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="45">
+      <c r="A111" s="40">
         <f>Señales!A111</f>
         <v>0</v>
       </c>
-      <c r="B111" s="45" t="str">
+      <c r="B111" s="40" t="str">
         <f>Señales!B111</f>
         <v>1101101</v>
       </c>
-      <c r="C111" s="45" t="str">
+      <c r="C111" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1101101',</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="45">
+      <c r="A112" s="40">
         <f>Señales!A112</f>
         <v>0</v>
       </c>
-      <c r="B112" s="45" t="str">
+      <c r="B112" s="40" t="str">
         <f>Señales!B112</f>
         <v>1101110</v>
       </c>
-      <c r="C112" s="45" t="str">
+      <c r="C112" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1101110',</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="45">
+      <c r="A113" s="40">
         <f>Señales!A113</f>
         <v>0</v>
       </c>
-      <c r="B113" s="45" t="str">
+      <c r="B113" s="40" t="str">
         <f>Señales!B113</f>
         <v>1101111</v>
       </c>
-      <c r="C113" s="45" t="str">
+      <c r="C113" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1101111',</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="45">
+      <c r="A114" s="40">
         <f>Señales!A114</f>
         <v>0</v>
       </c>
-      <c r="B114" s="45" t="str">
+      <c r="B114" s="40" t="str">
         <f>Señales!B114</f>
         <v>1110000</v>
       </c>
-      <c r="C114" s="45" t="str">
+      <c r="C114" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1110000',</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="45">
+      <c r="A115" s="40">
         <f>Señales!A115</f>
         <v>0</v>
       </c>
-      <c r="B115" s="45" t="str">
+      <c r="B115" s="40" t="str">
         <f>Señales!B115</f>
         <v>1110001</v>
       </c>
-      <c r="C115" s="45" t="str">
+      <c r="C115" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1110001',</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="45">
+      <c r="A116" s="40">
         <f>Señales!A116</f>
         <v>0</v>
       </c>
-      <c r="B116" s="45" t="str">
+      <c r="B116" s="40" t="str">
         <f>Señales!B116</f>
         <v>1110010</v>
       </c>
-      <c r="C116" s="45" t="str">
+      <c r="C116" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1110010',</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="45">
+      <c r="A117" s="40">
         <f>Señales!A117</f>
         <v>0</v>
       </c>
-      <c r="B117" s="45" t="str">
+      <c r="B117" s="40" t="str">
         <f>Señales!B117</f>
         <v>1110011</v>
       </c>
-      <c r="C117" s="45" t="str">
+      <c r="C117" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1110011',</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="45">
+      <c r="A118" s="40">
         <f>Señales!A118</f>
         <v>0</v>
       </c>
-      <c r="B118" s="45" t="str">
+      <c r="B118" s="40" t="str">
         <f>Señales!B118</f>
         <v>1110100</v>
       </c>
-      <c r="C118" s="45" t="str">
+      <c r="C118" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1110100',</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="45">
+      <c r="A119" s="40">
         <f>Señales!A119</f>
         <v>0</v>
       </c>
-      <c r="B119" s="45" t="str">
+      <c r="B119" s="40" t="str">
         <f>Señales!B119</f>
         <v>1110101</v>
       </c>
-      <c r="C119" s="45" t="str">
+      <c r="C119" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1110101',</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="45">
+      <c r="A120" s="40">
         <f>Señales!A120</f>
         <v>0</v>
       </c>
-      <c r="B120" s="45" t="str">
+      <c r="B120" s="40" t="str">
         <f>Señales!B120</f>
         <v>1110110</v>
       </c>
-      <c r="C120" s="45" t="str">
+      <c r="C120" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1110110',</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="45">
+      <c r="A121" s="40">
         <f>Señales!A121</f>
         <v>0</v>
       </c>
-      <c r="B121" s="45" t="str">
+      <c r="B121" s="40" t="str">
         <f>Señales!B121</f>
         <v>1110111</v>
       </c>
-      <c r="C121" s="45" t="str">
+      <c r="C121" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1110111',</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="45">
+      <c r="A122" s="40">
         <f>Señales!A122</f>
         <v>0</v>
       </c>
-      <c r="B122" s="45" t="str">
+      <c r="B122" s="40" t="str">
         <f>Señales!B122</f>
         <v>1111000</v>
       </c>
-      <c r="C122" s="45" t="str">
+      <c r="C122" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1111000',</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="45">
+      <c r="A123" s="40">
         <f>Señales!A123</f>
         <v>0</v>
       </c>
-      <c r="B123" s="45" t="str">
+      <c r="B123" s="40" t="str">
         <f>Señales!B123</f>
         <v>1111001</v>
       </c>
-      <c r="C123" s="45" t="str">
+      <c r="C123" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1111001',</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="45">
+      <c r="A124" s="40">
         <f>Señales!A124</f>
         <v>0</v>
       </c>
-      <c r="B124" s="45" t="str">
+      <c r="B124" s="40" t="str">
         <f>Señales!B124</f>
         <v>1111010</v>
       </c>
-      <c r="C124" s="45" t="str">
+      <c r="C124" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1111010',</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="45">
+      <c r="A125" s="40">
         <f>Señales!A125</f>
         <v>0</v>
       </c>
-      <c r="B125" s="45" t="str">
+      <c r="B125" s="40" t="str">
         <f>Señales!B125</f>
         <v>1111011</v>
       </c>
-      <c r="C125" s="45" t="str">
+      <c r="C125" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1111011',</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="45">
+      <c r="A126" s="40">
         <f>Señales!A126</f>
         <v>0</v>
       </c>
-      <c r="B126" s="45" t="str">
+      <c r="B126" s="40" t="str">
         <f>Señales!B126</f>
         <v>1111100</v>
       </c>
-      <c r="C126" s="45" t="str">
+      <c r="C126" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1111100',</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="45">
+      <c r="A127" s="40">
         <f>Señales!A127</f>
         <v>0</v>
       </c>
-      <c r="B127" s="45" t="str">
+      <c r="B127" s="40" t="str">
         <f>Señales!B127</f>
         <v>1111101</v>
       </c>
-      <c r="C127" s="45" t="str">
+      <c r="C127" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1111101',</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="45" t="str">
+      <c r="A128" s="40" t="str">
         <f>Señales!A128</f>
         <v>MOV A,B</v>
       </c>
-      <c r="B128" s="45" t="str">
+      <c r="B128" s="40" t="str">
         <f>Señales!B128</f>
         <v>1111110</v>
       </c>
-      <c r="C128" s="45" t="str">
+      <c r="C128" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'MOV A,B' : '1111110',</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="45">
+      <c r="A129" s="40">
         <f>Señales!A129</f>
         <v>0</v>
       </c>
-      <c r="B129" s="45" t="str">
+      <c r="B129" s="40" t="str">
         <f>Señales!B129</f>
         <v>1111111</v>
       </c>
-      <c r="C129" s="45" t="str">
+      <c r="C129" s="40" t="str">
         <f t="shared" si="1"/>
         <v>'0' : '1111111',</v>
       </c>

--- a/opcodes y señales.xlsx
+++ b/opcodes y señales.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Señales" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="319">
   <si>
     <t>Instrucción</t>
   </si>
@@ -2581,8 +2581,8 @@
   </sheetPr>
   <dimension ref="A1:IV131"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U112" sqref="U112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11962,24 +11962,24 @@
       <c r="U111" s="9"/>
     </row>
     <row r="112" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="10">
+      <c r="A112" s="10" t="str">
         <f>'Nombre - Señales'!A112</f>
-        <v>0</v>
+        <v>INC B</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="12" t="str">
         <f>'Nombre - Señales'!C112</f>
         <v>0</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="13" t="str">
         <f>'Nombre - Señales'!D112</f>
         <v>0</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="12" t="str">
         <f>'Nombre - Señales'!E112</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="13" t="str">
         <f>MID('Nombre - Señales'!G112,2,1)</f>
@@ -11987,7 +11987,7 @@
       </c>
       <c r="G112" s="13" t="str">
         <f>RIGHT('Nombre - Señales'!G112,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="12" t="str">
         <f>MID('Nombre - Señales'!I112,2,1)</f>
@@ -11995,27 +11995,27 @@
       </c>
       <c r="I112" s="12" t="str">
         <f>RIGHT('Nombre - Señales'!I112,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="13" t="str">
         <f>LEFT('Nombre - Señales'!K112,1)</f>
-        <v>N</v>
+        <v>0</v>
       </c>
       <c r="K112" s="13" t="str">
         <f>MID('Nombre - Señales'!K112,2,1)</f>
-        <v>o</v>
+        <v>0</v>
       </c>
       <c r="L112" s="13" t="str">
         <f>RIGHT('Nombre - Señales'!K112,1)</f>
-        <v>e</v>
+        <v>0</v>
       </c>
       <c r="M112" s="12" t="str">
         <f>MID('Nombre - Señales'!M112,2,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" s="12" t="str">
         <f>RIGHT('Nombre - Señales'!M112,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" s="13" t="str">
         <f>RIGHT('Nombre - Señales'!O112,1)</f>
@@ -12025,7 +12025,7 @@
         <f>RIGHT('Nombre - Señales'!Q112,1)</f>
         <v>0</v>
       </c>
-      <c r="Q112" s="13">
+      <c r="Q112" s="13" t="str">
         <f>'Nombre - Señales'!R112</f>
         <v>0</v>
       </c>
@@ -12033,15 +12033,18 @@
         <f>RIGHT('Nombre - Señales'!S112,1)</f>
         <v>0</v>
       </c>
-      <c r="S112" s="13">
+      <c r="S112" s="13" t="str">
         <f>'Nombre - Señales'!T112</f>
         <v>0</v>
       </c>
       <c r="T112" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0001100000000Noe0</v>
-      </c>
-      <c r="U112" s="9"/>
+        <v>00000000101010000</v>
+      </c>
+      <c r="U112" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'00000000101010000' when '1101110', --INC B</v>
+      </c>
     </row>
     <row r="113" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10">
@@ -13468,9 +13471,9 @@
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111:N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17968,22 +17971,48 @@
       <c r="N111" s="14"/>
     </row>
     <row r="112" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
+      <c r="A112" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="B112" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="13"/>
+      <c r="C112" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N112" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="113" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -18333,8 +18362,8 @@
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="A84" zoomScale="61" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27438,83 +27467,83 @@
       </c>
     </row>
     <row r="112" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+      <c r="A112" s="6" t="str">
         <f>Nombres!A112</f>
-        <v>0</v>
+        <v>INC B</v>
       </c>
       <c r="B112" s="7" t="str">
         <f>Nombres!B112</f>
         <v>1101110</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="12" t="str">
         <f>Nombres!C112</f>
         <v>0</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="13" t="str">
         <f>Nombres!D112</f>
         <v>0</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="12" t="str">
         <f>Nombres!E112</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="13">
+        <v>1</v>
+      </c>
+      <c r="F112" s="13" t="str">
         <f>Nombres!F112</f>
-        <v>0</v>
+        <v>ONE</v>
       </c>
       <c r="G112" s="14" t="str">
         <f>IF(F112=Transformador!$B$10,Transformador!$B$9,IF(F112=Transformador!$C$10,Transformador!$C$9,IF(F112=Transformador!$D$10,Transformador!$D$9,IF(F112=Transformador!$E$10,Transformador!$E$9,IF(F112=Transformador!$F$10,Transformador!$F$9,IF(F112=Transformador!$G$10,Transformador!$G$9,IF(F112=Transformador!$H$10,Transformador!$H$9,IF(F112=Transformador!$I$10,Transformador!$I$9,IF(F112="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>100</v>
-      </c>
-      <c r="H112" s="12">
+        <v>001</v>
+      </c>
+      <c r="H112" s="12" t="str">
         <f>Nombres!G112</f>
-        <v>0</v>
+        <v>B</v>
       </c>
       <c r="I112" s="12" t="str">
         <f>IF(H112=Transformador!$B$11,Transformador!$B$9,IF(H112=Transformador!$C$11,Transformador!$C$9,IF(H112=Transformador!$D$11,Transformador!$D$9,IF(H112=Transformador!$E$11,Transformador!$E$9,IF(H112=Transformador!$F$11,Transformador!$F$9,IF(H112=Transformador!$G$11,Transformador!$G$9,IF(H112=Transformador!$H$11,Transformador!$H$9,IF(H112=Transformador!$I$11,Transformador!$I$9,IF(H112="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>100</v>
-      </c>
-      <c r="J112" s="13">
+        <v>001</v>
+      </c>
+      <c r="J112" s="13" t="str">
         <f>Nombres!H112</f>
-        <v>0</v>
+        <v>ADD</v>
       </c>
       <c r="K112" s="13" t="str">
         <f>IF(J112=Transformador!$B$12,Transformador!$B$9,IF(J112=Transformador!$C$12,Transformador!$C$9,IF(J112=Transformador!$D$12,Transformador!$D$9,IF(J112=Transformador!$E$12,Transformador!$E$9,IF(J112=Transformador!$F$12,Transformador!$F$9,IF(J112=Transformador!$G$12,Transformador!$G$9,IF(J112=Transformador!$H$12,Transformador!$H$9,IF(J112=Transformador!$I$12,Transformador!$I$9,IF(J112="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>No Exise</v>
-      </c>
-      <c r="L112" s="12">
+        <v>000</v>
+      </c>
+      <c r="L112" s="12" t="str">
         <f>Nombres!I112</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="M112" s="12" t="str">
         <f>IF(L112=Transformador!$B$13,Transformador!$B$9,IF(L112=Transformador!$C$13,Transformador!$C$9,IF(L112=Transformador!$D$13,Transformador!$D$9,IF(L112=Transformador!$E$13,Transformador!$E$9,IF(L112=Transformador!$F$13,Transformador!$F$9,IF(L112=Transformador!$G$13,Transformador!$G$9,IF(L112=Transformador!$H$13,Transformador!$H$9,IF(L112=Transformador!$I$13,Transformador!$I$9,IF(L112="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>011</v>
-      </c>
-      <c r="N112" s="13">
+        <v>000</v>
+      </c>
+      <c r="N112" s="13" t="str">
         <f>Nombres!J112</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="O112" s="13" t="str">
         <f>IF(N112=Transformador!$B$14,Transformador!$B$9,IF(N112=Transformador!$C$14,Transformador!$C$9,IF(N112=Transformador!$D$14,Transformador!$D$9,IF(N112=Transformador!$E$14,Transformador!$E$9,IF(N112=Transformador!$F$14,Transformador!$F$9,IF(N112=Transformador!$G$14,Transformador!$G$9,IF(N112=Transformador!$H$14,Transformador!$H$9,IF(N112=Transformador!$I$14,Transformador!$I$9,IF(N112="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>010</v>
-      </c>
-      <c r="P112" s="12">
+        <v>000</v>
+      </c>
+      <c r="P112" s="12" t="str">
         <f>Nombres!K112</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q112" s="12" t="str">
         <f>IF(P112=Transformador!$B$15,Transformador!$B$9,IF(P112=Transformador!$C$15,Transformador!$C$9,IF(P112=Transformador!$D$15,Transformador!$D$9,IF(P112=Transformador!$E$15,Transformador!$E$9,IF(P112=Transformador!$F$15,Transformador!$F$9,IF(P112=Transformador!$G$15,Transformador!$G$9,IF(P112=Transformador!$H$15,Transformador!$H$9,IF(P112=Transformador!$I$15,Transformador!$I$9,IF(P112="-",Transformador!$B$9,"No Exise")))))))))</f>
-        <v>010</v>
-      </c>
-      <c r="R112" s="13">
+        <v>000</v>
+      </c>
+      <c r="R112" s="13" t="str">
         <f>Nombres!L112</f>
         <v>0</v>
       </c>
-      <c r="S112" s="12">
+      <c r="S112" s="12" t="str">
         <f>Nombres!M112</f>
         <v>0</v>
       </c>
-      <c r="T112" s="13">
+      <c r="T112" s="13" t="str">
         <f>Nombres!N112</f>
         <v>0</v>
       </c>
@@ -28927,7 +28956,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38884,13 +38913,13 @@
       <c r="E111" s="24"/>
     </row>
     <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="22">
+      <c r="A112" s="22" t="str">
         <f>Señales!A112</f>
-        <v>0</v>
+        <v>INC B</v>
       </c>
       <c r="B112" s="22" t="str">
         <f>Señales!T112</f>
-        <v>0001100000000Noe0</v>
+        <v>00000000101010000</v>
       </c>
       <c r="C112" s="22" t="str">
         <f>Original!T112</f>
@@ -39238,8 +39267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40801,9 +40830,9 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="40">
+      <c r="A112" s="40" t="str">
         <f>Señales!A112</f>
-        <v>0</v>
+        <v>INC B</v>
       </c>
       <c r="B112" s="40" t="str">
         <f>Señales!B112</f>
@@ -40811,7 +40840,7 @@
       </c>
       <c r="C112" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>'0' : '1101110',</v>
+        <v>'INC B' : '1101110',</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">

--- a/opcodes y señales.xlsx
+++ b/opcodes y señales.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Señales" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="321">
   <si>
     <t>Instrucción</t>
   </si>
@@ -991,6 +991,9 @@
   <si>
     <t>Python</t>
   </si>
+  <si>
+    <t>Lpc = 0 (se cambia a 1 si hay salto)</t>
+  </si>
 </sst>
 </file>
 
@@ -1418,7 +1421,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1595,6 +1598,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2758,7 +2764,7 @@
   </sheetPr>
   <dimension ref="A1:IV255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N42" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="N42" workbookViewId="0">
       <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
@@ -9706,7 +9712,7 @@
       </c>
       <c r="D79" s="13" t="str">
         <f>'Nombre - Señales'!D79</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="14" t="str">
         <f>'Nombre - Señales'!E79</f>
@@ -9774,11 +9780,11 @@
       </c>
       <c r="U79" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="V79" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>'000000010000000000' when '1001101', --JEQ Ins</v>
+        <v>'000000000000000000' when '1001101', --JEQ Ins</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -9795,7 +9801,7 @@
       </c>
       <c r="D80" s="13" t="str">
         <f>'Nombre - Señales'!D80</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="14" t="str">
         <f>'Nombre - Señales'!E80</f>
@@ -9863,11 +9869,11 @@
       </c>
       <c r="U80" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="V80" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>'000000010000000000' when '1001110', --JNE Ins</v>
+        <v>'000000000000000000' when '1001110', --JNE Ins</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -9884,7 +9890,7 @@
       </c>
       <c r="D81" s="13" t="str">
         <f>'Nombre - Señales'!D81</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="14" t="str">
         <f>'Nombre - Señales'!E81</f>
@@ -9952,11 +9958,11 @@
       </c>
       <c r="U81" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="V81" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>'000000010000000000' when '1001111', --JGT Ins</v>
+        <v>'000000000000000000' when '1001111', --JGT Ins</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -9973,7 +9979,7 @@
       </c>
       <c r="D82" s="13" t="str">
         <f>'Nombre - Señales'!D82</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="14" t="str">
         <f>'Nombre - Señales'!E82</f>
@@ -10041,11 +10047,11 @@
       </c>
       <c r="U82" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="V82" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>'000000010000000000' when '1010000', --JLT Ins</v>
+        <v>'000000000000000000' when '1010000', --JLT Ins</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10062,7 +10068,7 @@
       </c>
       <c r="D83" s="13" t="str">
         <f>'Nombre - Señales'!D83</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="14" t="str">
         <f>'Nombre - Señales'!E83</f>
@@ -10130,11 +10136,11 @@
       </c>
       <c r="U83" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="V83" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>'000000010000000000' when '1010001', --JGE Ins</v>
+        <v>'000000000000000000' when '1010001', --JGE Ins</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10151,7 +10157,7 @@
       </c>
       <c r="D84" s="13" t="str">
         <f>'Nombre - Señales'!D84</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="14" t="str">
         <f>'Nombre - Señales'!E84</f>
@@ -10219,11 +10225,11 @@
       </c>
       <c r="U84" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="V84" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>'000000010000000000' when '1010010', --JLE Ins</v>
+        <v>'000000000000000000' when '1010010', --JLE Ins</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10240,7 +10246,7 @@
       </c>
       <c r="D85" s="13" t="str">
         <f>'Nombre - Señales'!D85</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" s="14" t="str">
         <f>'Nombre - Señales'!E85</f>
@@ -10308,11 +10314,11 @@
       </c>
       <c r="U85" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="V85" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>'000000010000000000' when '1010011', --JCR Ins</v>
+        <v>'000000000000000000' when '1010011', --JCR Ins</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11468,7 +11474,7 @@
         <v>000001001000100000</v>
       </c>
       <c r="V98" s="11" t="str">
-        <f t="shared" ref="V98:V129" si="7">IF(A98&lt;&gt;"",CONCATENATE("'",U97:U225,"'"," when ","'",B97:B225,"'",","," --",A97:A225),"")</f>
+        <f t="shared" ref="V98:V128" si="7">IF(A98&lt;&gt;"",CONCATENATE("'",U97:U225,"'"," when ","'",B97:B225,"'",","," --",A97:A225),"")</f>
         <v>'000001001000100000' when '1100000', --POP A</v>
       </c>
     </row>
@@ -17277,8 +17283,8 @@
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q79" sqref="Q79:Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20064,7 +20070,7 @@
       <c r="O64" s="14"/>
       <c r="P64" s="29"/>
     </row>
-    <row r="65" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="12" t="s">
         <v>134</v>
@@ -20084,7 +20090,7 @@
       <c r="O65" s="30"/>
       <c r="P65" s="29"/>
     </row>
-    <row r="66" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>135</v>
       </c>
@@ -20132,7 +20138,7 @@
       </c>
       <c r="P66" s="29"/>
     </row>
-    <row r="67" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>137</v>
       </c>
@@ -20180,7 +20186,7 @@
       </c>
       <c r="P67" s="29"/>
     </row>
-    <row r="68" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>139</v>
       </c>
@@ -20228,7 +20234,7 @@
       </c>
       <c r="P68" s="29"/>
     </row>
-    <row r="69" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>141</v>
       </c>
@@ -20276,7 +20282,7 @@
       </c>
       <c r="P69" s="29"/>
     </row>
-    <row r="70" spans="1:16" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>143</v>
       </c>
@@ -20324,7 +20330,7 @@
       </c>
       <c r="P70" s="29"/>
     </row>
-    <row r="71" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>145</v>
       </c>
@@ -20372,7 +20378,7 @@
       </c>
       <c r="P71" s="29"/>
     </row>
-    <row r="72" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>147</v>
       </c>
@@ -20422,7 +20428,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>149</v>
       </c>
@@ -20470,7 +20476,7 @@
       </c>
       <c r="P73" s="29"/>
     </row>
-    <row r="74" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>151</v>
       </c>
@@ -20518,7 +20524,7 @@
       </c>
       <c r="P74" s="29"/>
     </row>
-    <row r="75" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>153</v>
       </c>
@@ -20566,7 +20572,7 @@
       </c>
       <c r="P75" s="29"/>
     </row>
-    <row r="76" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>155</v>
       </c>
@@ -20614,7 +20620,7 @@
       </c>
       <c r="P76" s="29"/>
     </row>
-    <row r="77" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>157</v>
       </c>
@@ -20662,7 +20668,7 @@
       </c>
       <c r="P77" s="29"/>
     </row>
-    <row r="78" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>159</v>
       </c>
@@ -20710,7 +20716,7 @@
       </c>
       <c r="P78" s="29"/>
     </row>
-    <row r="79" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>161</v>
       </c>
@@ -20721,7 +20727,7 @@
         <v>19</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E79" s="30" t="s">
         <v>19</v>
@@ -20759,8 +20765,11 @@
       <c r="P79" s="31" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q79" s="59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>163</v>
       </c>
@@ -20771,7 +20780,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>19</v>
@@ -20809,8 +20818,9 @@
       <c r="P80" s="31" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q80" s="59"/>
+    </row>
+    <row r="81" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>165</v>
       </c>
@@ -20821,7 +20831,7 @@
         <v>19</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>19</v>
@@ -20859,8 +20869,9 @@
       <c r="P81" s="31" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q81" s="59"/>
+    </row>
+    <row r="82" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
@@ -20871,7 +20882,7 @@
         <v>19</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>19</v>
@@ -20909,8 +20920,9 @@
       <c r="P82" s="31" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q82" s="59"/>
+    </row>
+    <row r="83" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>169</v>
       </c>
@@ -20921,7 +20933,7 @@
         <v>19</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>19</v>
@@ -20959,8 +20971,9 @@
       <c r="P83" s="31" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q83" s="59"/>
+    </row>
+    <row r="84" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>171</v>
       </c>
@@ -20971,7 +20984,7 @@
         <v>19</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>19</v>
@@ -21009,8 +21022,9 @@
       <c r="P84" s="31" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q84" s="59"/>
+    </row>
+    <row r="85" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>173</v>
       </c>
@@ -21021,7 +21035,7 @@
         <v>19</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>19</v>
@@ -21059,8 +21073,9 @@
       <c r="P85" s="31" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q85" s="59"/>
+    </row>
+    <row r="86" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>175</v>
       </c>
@@ -21108,7 +21123,7 @@
       </c>
       <c r="P86" s="29"/>
     </row>
-    <row r="87" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -21156,7 +21171,7 @@
       </c>
       <c r="P87" s="29"/>
     </row>
-    <row r="88" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>179</v>
       </c>
@@ -21204,7 +21219,7 @@
       </c>
       <c r="P88" s="29"/>
     </row>
-    <row r="89" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="12" t="s">
         <v>181</v>
@@ -21224,7 +21239,7 @@
       <c r="O89" s="30"/>
       <c r="P89" s="29"/>
     </row>
-    <row r="90" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>182</v>
       </c>
@@ -21272,7 +21287,7 @@
       </c>
       <c r="P90" s="29"/>
     </row>
-    <row r="91" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="12" t="s">
         <v>184</v>
@@ -21292,7 +21307,7 @@
       <c r="O91" s="30"/>
       <c r="P91" s="29"/>
     </row>
-    <row r="92" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>185</v>
       </c>
@@ -21340,7 +21355,7 @@
       </c>
       <c r="P92" s="29"/>
     </row>
-    <row r="93" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>187</v>
       </c>
@@ -21388,7 +21403,7 @@
       </c>
       <c r="P93" s="29"/>
     </row>
-    <row r="94" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>189</v>
       </c>
@@ -21436,7 +21451,7 @@
       </c>
       <c r="P94" s="29"/>
     </row>
-    <row r="95" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>191</v>
       </c>
@@ -21484,7 +21499,7 @@
       </c>
       <c r="P95" s="29"/>
     </row>
-    <row r="96" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>193</v>
       </c>
@@ -22703,6 +22718,9 @@
       <c r="P129" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q79:Q85"/>
+  </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -29440,7 +29458,7 @@
       </c>
       <c r="D79" s="13" t="str">
         <f>Nombres!D79</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="14" t="str">
         <f>Nombres!E79</f>
@@ -29526,7 +29544,7 @@
       </c>
       <c r="D80" s="13" t="str">
         <f>Nombres!D80</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="14" t="str">
         <f>Nombres!E80</f>
@@ -29612,7 +29630,7 @@
       </c>
       <c r="D81" s="13" t="str">
         <f>Nombres!D81</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="14" t="str">
         <f>Nombres!E81</f>
@@ -29698,7 +29716,7 @@
       </c>
       <c r="D82" s="13" t="str">
         <f>Nombres!D82</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="14" t="str">
         <f>Nombres!E82</f>
@@ -29784,7 +29802,7 @@
       </c>
       <c r="D83" s="13" t="str">
         <f>Nombres!D83</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="14" t="str">
         <f>Nombres!E83</f>
@@ -29870,7 +29888,7 @@
       </c>
       <c r="D84" s="13" t="str">
         <f>Nombres!D84</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="14" t="str">
         <f>Nombres!E84</f>
@@ -29956,7 +29974,7 @@
       </c>
       <c r="D85" s="13" t="str">
         <f>Nombres!D85</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" s="14" t="str">
         <f>Nombres!E85</f>
@@ -43155,7 +43173,7 @@
       </c>
       <c r="B79" s="39" t="str">
         <f>Señales!U79</f>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="C79" s="39" t="str">
         <f>Original!T79</f>
@@ -43174,7 +43192,7 @@
       </c>
       <c r="B80" s="39" t="str">
         <f>Señales!U80</f>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="C80" s="39" t="str">
         <f>Original!T80</f>
@@ -43193,7 +43211,7 @@
       </c>
       <c r="B81" s="39" t="str">
         <f>Señales!U81</f>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="C81" s="39" t="str">
         <f>Original!T81</f>
@@ -43212,7 +43230,7 @@
       </c>
       <c r="B82" s="39" t="str">
         <f>Señales!U82</f>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="C82" s="39" t="str">
         <f>Original!T82</f>
@@ -43231,7 +43249,7 @@
       </c>
       <c r="B83" s="39" t="str">
         <f>Señales!U83</f>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="C83" s="39" t="str">
         <f>Original!T83</f>
@@ -43250,7 +43268,7 @@
       </c>
       <c r="B84" s="39" t="str">
         <f>Señales!U84</f>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="C84" s="39" t="str">
         <f>Original!T84</f>
@@ -43269,7 +43287,7 @@
       </c>
       <c r="B85" s="39" t="str">
         <f>Señales!U85</f>
-        <v>000000010000000000</v>
+        <v>000000000000000000</v>
       </c>
       <c r="C85" s="39" t="str">
         <f>Original!T85</f>
